--- a/Ticker_DataLocal.xlsx
+++ b/Ticker_DataLocal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostayanev/easter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostayanev/NikyClean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8162D825-AF0D-8F46-A263-68CD04282028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF4DA94-CEB4-9C45-A14A-7CB4F7E78786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1321,8 +1321,8 @@
           <cell r="B55">
             <v>15.329549999999999</v>
           </cell>
-          <cell r="C55" t="str">
-            <v>2025-09-22</v>
+          <cell r="C55">
+            <v>45986</v>
           </cell>
           <cell r="E55">
             <v>7.1100003999999994E-2</v>
@@ -1945,8 +1945,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3362,9 +3362,9 @@
         <f>[1]Data!B55</f>
         <v>15.329549999999999</v>
       </c>
-      <c r="C55" t="str">
+      <c r="C55">
         <f>[1]Data!C55</f>
-        <v>2025-09-22</v>
+        <v>45986</v>
       </c>
       <c r="D55">
         <f>[1]Data!D55</f>
@@ -3883,8 +3883,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="F58" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C58,$A$2:$A$74,Sheet1!C$2:C$74))</f>
-        <v>45922</v>
+        <v>45986</v>
       </c>
       <c r="G58" s="4">
         <f>_xlfn.XLOOKUP($C58,$A$2:$A$74,Sheet1!D$2:D$74)</f>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="F74" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C74,$A$2:$A$74,Sheet1!C$2:C$74))</f>
-        <v>45922</v>
+        <v>45986</v>
       </c>
       <c r="G74" s="4">
         <f>_xlfn.XLOOKUP($C74,$A$2:$A$74,Sheet1!D$2:D$74)</f>

--- a/Ticker_DataLocal.xlsx
+++ b/Ticker_DataLocal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostayanev/NikyClean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF4DA94-CEB4-9C45-A14A-7CB4F7E78786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F5CC7D-9F53-CB40-A803-9D819A05E76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Ticker</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>MVE, SAF</t>
+  </si>
+  <si>
+    <t>JBASML</t>
   </si>
 </sst>
 </file>
@@ -1945,7 +1948,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="150" workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
@@ -3881,10 +3884,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD35AB8-8038-8C4C-A651-D274FEBDAB5A}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93:H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6572,23 +6575,23 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
-        <f>IF(ISNUMBER(SEARCH(".", Sheet1!A93)),LEFT(Sheet1!A93,LEN(Sheet1!A93)-3),Sheet1!A93)</f>
+        <f>IF(ISNUMBER(SEARCH(".", Sheet1!A94)),LEFT(Sheet1!A94,LEN(Sheet1!A94)-3),Sheet1!A94)</f>
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C93" t="str">
-        <f t="shared" si="2"/>
-        <v>EOAN</v>
+        <f>IF(OR(LEFT(B93,3)="MVE",LEFT(B93,3)="SAF"),RIGHT(B93, LEN(B93) - 3),                IF(LEFT(B93,2)="JB",RIGHT(B93,LEN(B93)-2),B93))</f>
+        <v>LOCK</v>
       </c>
       <c r="E93">
         <f>VALUE(_xlfn.XLOOKUP($C93,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>16.88824</v>
+        <v>0</v>
       </c>
       <c r="F93" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C93,$A$2:$A$74,Sheet1!C$2:C$74))</f>
-        <v>45793</v>
+        <v>0</v>
       </c>
       <c r="G93" s="4">
         <f>_xlfn.XLOOKUP($C93,$A$2:$A$74,Sheet1!D$2:D$74)</f>
@@ -6596,28 +6599,28 @@
       </c>
       <c r="H93" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C93,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>3.6199997999999997E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
-        <f>IF(ISNUMBER(SEARCH(".", Sheet1!A94)),LEFT(Sheet1!A94,LEN(Sheet1!A94)-3),Sheet1!A94)</f>
+        <f>IF(ISNUMBER(SEARCH(".", Sheet1!A95)),LEFT(Sheet1!A95,LEN(Sheet1!A95)-3),Sheet1!A95)</f>
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C94" t="str">
-        <f t="shared" si="2"/>
-        <v>LOCK</v>
+        <f>IF(OR(LEFT(B94,3)="MVE",LEFT(B94,3)="SAF"),RIGHT(B94, LEN(B94) - 3),                IF(LEFT(B94,2)="JB",RIGHT(B94,LEN(B94)-2),B94))</f>
+        <v>ASML</v>
       </c>
       <c r="E94">
         <f>VALUE(_xlfn.XLOOKUP($C94,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>0</v>
+        <v>758</v>
       </c>
       <c r="F94" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C94,$A$2:$A$74,Sheet1!C$2:C$74))</f>
-        <v>0</v>
+        <v>45866</v>
       </c>
       <c r="G94" s="4">
         <f>_xlfn.XLOOKUP($C94,$A$2:$A$74,Sheet1!D$2:D$74)</f>
@@ -6625,7 +6628,36 @@
       </c>
       <c r="H94" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C94,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>0</v>
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <f>IF(ISNUMBER(SEARCH(".", Sheet1!A93)),LEFT(Sheet1!A93,LEN(Sheet1!A93)-3),Sheet1!A93)</f>
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" t="str">
+        <f>IF(OR(LEFT(B95,3)="MVE",LEFT(B95,3)="SAF"),RIGHT(B95, LEN(B95) - 3),                IF(LEFT(B95,2)="JB",RIGHT(B95,LEN(B95)-2),B95))</f>
+        <v>EOAN</v>
+      </c>
+      <c r="E95">
+        <f>VALUE(_xlfn.XLOOKUP($C95,$A$2:$A$74,Sheet1!B$2:B$74))</f>
+        <v>16.88824</v>
+      </c>
+      <c r="F95" s="4">
+        <f>VALUE(_xlfn.XLOOKUP($C95,$A$2:$A$74,Sheet1!C$2:C$74))</f>
+        <v>45793</v>
+      </c>
+      <c r="G95" s="4">
+        <f>_xlfn.XLOOKUP($C95,$A$2:$A$74,Sheet1!D$2:D$74)</f>
+        <v>0</v>
+      </c>
+      <c r="H95" s="5">
+        <f>VALUE(_xlfn.XLOOKUP($C95,$A$2:$A$74,Sheet1!E$2:E$74))</f>
+        <v>3.6199997999999997E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Ticker_DataLocal.xlsx
+++ b/Ticker_DataLocal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostayanev/NikyClean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F5CC7D-9F53-CB40-A803-9D819A05E76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D1020B-0EC5-584F-AF86-3945BC48BCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="760" windowWidth="14400" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1065,7 +1065,7 @@
             <v>RWE.DE</v>
           </cell>
           <cell r="B39">
-            <v>42.911110000000001</v>
+            <v>43.26</v>
           </cell>
           <cell r="C39" t="str">
             <v>2025-05-02</v>
@@ -1322,10 +1322,10 @@
             <v>ENI.MI</v>
           </cell>
           <cell r="B55">
-            <v>15.329549999999999</v>
-          </cell>
-          <cell r="C55">
-            <v>45986</v>
+            <v>15.5</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>2025-09-22</v>
           </cell>
           <cell r="E55">
             <v>7.1100003999999994E-2</v>
@@ -1538,7 +1538,7 @@
             <v>OXY</v>
           </cell>
           <cell r="B67">
-            <v>50.652169999999998</v>
+            <v>50.78</v>
           </cell>
           <cell r="C67" t="str">
             <v>2025-09-10</v>
@@ -1948,8 +1948,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="B39">
         <f>[1]Data!B39</f>
-        <v>42.911110000000001</v>
+        <v>43.26</v>
       </c>
       <c r="C39" t="str">
         <f>[1]Data!C39</f>
@@ -3363,11 +3363,11 @@
       </c>
       <c r="B55">
         <f>[1]Data!B55</f>
-        <v>15.329549999999999</v>
-      </c>
-      <c r="C55">
+        <v>15.5</v>
+      </c>
+      <c r="C55" t="str">
         <f>[1]Data!C55</f>
-        <v>45986</v>
+        <v>2025-09-22</v>
       </c>
       <c r="D55">
         <f>[1]Data!D55</f>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="B67">
         <f>[1]Data!B67</f>
-        <v>50.652169999999998</v>
+        <v>50.78</v>
       </c>
       <c r="C67" t="str">
         <f>[1]Data!C67</f>
@@ -3886,8 +3886,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93:H94"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="E39">
         <f>VALUE(_xlfn.XLOOKUP($C39,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>42.911110000000001</v>
+        <v>43.26</v>
       </c>
       <c r="F39" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C39,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -5572,11 +5572,11 @@
       </c>
       <c r="E58">
         <f>VALUE(_xlfn.XLOOKUP($C58,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>15.329549999999999</v>
+        <v>15.5</v>
       </c>
       <c r="F58" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C58,$A$2:$A$74,Sheet1!C$2:C$74))</f>
-        <v>45986</v>
+        <v>45922</v>
       </c>
       <c r="G58" s="4">
         <f>_xlfn.XLOOKUP($C58,$A$2:$A$74,Sheet1!D$2:D$74)</f>
@@ -5688,7 +5688,7 @@
       </c>
       <c r="E62">
         <f>VALUE(_xlfn.XLOOKUP($C62,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>42.911110000000001</v>
+        <v>43.26</v>
       </c>
       <c r="F62" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C62,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -5799,7 +5799,7 @@
         <v>86</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" ref="C66:C94" si="2">IF(OR(LEFT(B66,3)="MVE",LEFT(B66,3)="SAF"),RIGHT(B66, LEN(B66) - 3),                IF(LEFT(B66,2)="JB",RIGHT(B66,LEN(B66)-2),B66))</f>
+        <f t="shared" ref="C66:C92" si="2">IF(OR(LEFT(B66,3)="MVE",LEFT(B66,3)="SAF"),RIGHT(B66, LEN(B66) - 3),                IF(LEFT(B66,2)="JB",RIGHT(B66,LEN(B66)-2),B66))</f>
         <v>AMZN</v>
       </c>
       <c r="E66">
@@ -6036,11 +6036,11 @@
       </c>
       <c r="E74">
         <f>VALUE(_xlfn.XLOOKUP($C74,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>15.329549999999999</v>
+        <v>15.5</v>
       </c>
       <c r="F74" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C74,$A$2:$A$74,Sheet1!C$2:C$74))</f>
-        <v>45986</v>
+        <v>45922</v>
       </c>
       <c r="G74" s="4">
         <f>_xlfn.XLOOKUP($C74,$A$2:$A$74,Sheet1!D$2:D$74)</f>
@@ -6384,7 +6384,7 @@
       </c>
       <c r="E86">
         <f>VALUE(_xlfn.XLOOKUP($C86,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>50.652169999999998</v>
+        <v>50.78</v>
       </c>
       <c r="F86" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C86,$A$2:$A$74,Sheet1!C$2:C$74))</f>

--- a/Ticker_DataLocal.xlsx
+++ b/Ticker_DataLocal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostayanev/NikyClean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D1020B-0EC5-584F-AF86-3945BC48BCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF773A7-C381-5B42-BA83-B4333364AE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="760" windowWidth="14400" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="760" windowWidth="14400" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1948,7 +1948,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScale="150" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -3886,8 +3886,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Ticker_DataLocal.xlsx
+++ b/Ticker_DataLocal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostayanev/NikyClean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF773A7-C381-5B42-BA83-B4333364AE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612A84E5-9C41-1343-A986-BD88B9C92795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="760" windowWidth="14400" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28820" yWindow="-19600" windowWidth="14400" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3887,7 +3887,7 @@
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C95"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Ticker_DataLocal.xlsx
+++ b/Ticker_DataLocal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostayanev/NikyClean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612A84E5-9C41-1343-A986-BD88B9C92795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171EEB0C-E019-A64A-83CA-000D78B0A372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28820" yWindow="-19600" windowWidth="14400" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1324,8 +1324,8 @@
           <cell r="B55">
             <v>15.5</v>
           </cell>
-          <cell r="C55" t="str">
-            <v>2025-09-22</v>
+          <cell r="C55">
+            <v>45985</v>
           </cell>
           <cell r="E55">
             <v>7.1100003999999994E-2</v>
@@ -1629,7 +1629,7 @@
             <v>THC</v>
           </cell>
           <cell r="B72">
-            <v>197.52379999999999</v>
+            <v>201.43</v>
           </cell>
           <cell r="C72" t="str">
             <v>2000-03-13</v>
@@ -3365,9 +3365,9 @@
         <f>[1]Data!B55</f>
         <v>15.5</v>
       </c>
-      <c r="C55" t="str">
+      <c r="C55">
         <f>[1]Data!C55</f>
-        <v>2025-09-22</v>
+        <v>45985</v>
       </c>
       <c r="D55">
         <f>[1]Data!D55</f>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="B72">
         <f>[1]Data!B72</f>
-        <v>197.52379999999999</v>
+        <v>201.43</v>
       </c>
       <c r="C72" t="str">
         <f>[1]Data!C72</f>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="F58" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C58,$A$2:$A$74,Sheet1!C$2:C$74))</f>
-        <v>45922</v>
+        <v>45985</v>
       </c>
       <c r="G58" s="4">
         <f>_xlfn.XLOOKUP($C58,$A$2:$A$74,Sheet1!D$2:D$74)</f>
@@ -6040,7 +6040,7 @@
       </c>
       <c r="F74" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C74,$A$2:$A$74,Sheet1!C$2:C$74))</f>
-        <v>45922</v>
+        <v>45985</v>
       </c>
       <c r="G74" s="4">
         <f>_xlfn.XLOOKUP($C74,$A$2:$A$74,Sheet1!D$2:D$74)</f>
@@ -6529,7 +6529,7 @@
       </c>
       <c r="E91">
         <f>VALUE(_xlfn.XLOOKUP($C91,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>197.52379999999999</v>
+        <v>201.43</v>
       </c>
       <c r="F91" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C91,$A$2:$A$74,Sheet1!C$2:C$74))</f>

--- a/Ticker_DataLocal.xlsx
+++ b/Ticker_DataLocal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostayanev/NikyClean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171EEB0C-E019-A64A-83CA-000D78B0A372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A17688D-7D3B-754D-AB42-D3DFCAB85825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28820" yWindow="-19600" windowWidth="14400" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
             <v>AAPL</v>
           </cell>
           <cell r="B2">
-            <v>235.52553</v>
+            <v>248.17128</v>
           </cell>
           <cell r="C2" t="str">
             <v>2025-08-11</v>
@@ -469,7 +469,7 @@
             <v>Oct 30, 2025</v>
           </cell>
           <cell r="E2">
-            <v>4.3E-3</v>
+            <v>4.1999999999999997E-3</v>
           </cell>
           <cell r="F2" t="str">
             <v>USD</v>
@@ -486,7 +486,7 @@
             <v>2025-08-26</v>
           </cell>
           <cell r="E3">
-            <v>1.2999999E-2</v>
+            <v>1.2699999999999999E-2</v>
           </cell>
           <cell r="F3" t="str">
             <v>USD</v>
@@ -497,7 +497,7 @@
             <v>AET.L</v>
           </cell>
           <cell r="B4">
-            <v>95.060005000000004</v>
+            <v>96.66</v>
           </cell>
           <cell r="F4" t="str">
             <v>GBp</v>
@@ -508,7 +508,7 @@
             <v>AMZN</v>
           </cell>
           <cell r="B5">
-            <v>263.18033000000003</v>
+            <v>266.56450000000001</v>
           </cell>
           <cell r="D5" t="str">
             <v>Oct 30, 2025</v>
@@ -524,6 +524,9 @@
           <cell r="B6">
             <v>1.5333300000000001</v>
           </cell>
+          <cell r="D6" t="str">
+            <v>--</v>
+          </cell>
           <cell r="F6" t="str">
             <v>EUR</v>
           </cell>
@@ -533,13 +536,13 @@
             <v>ASML.AS</v>
           </cell>
           <cell r="B7">
-            <v>758</v>
+            <v>873.90326000000005</v>
           </cell>
           <cell r="C7" t="str">
             <v>2025-07-28</v>
           </cell>
           <cell r="E7">
-            <v>9.7999999999999997E-3</v>
+            <v>8.0000000000000002E-3</v>
           </cell>
           <cell r="F7" t="str">
             <v>EUR</v>
@@ -550,16 +553,16 @@
             <v>AZN</v>
           </cell>
           <cell r="B8">
-            <v>87.27</v>
+            <v>89.77</v>
           </cell>
           <cell r="C8" t="str">
             <v>2025-08-08</v>
           </cell>
           <cell r="D8" t="str">
-            <v>Jul 29, 2025</v>
+            <v>Nov 6, 2025</v>
           </cell>
           <cell r="E8">
-            <v>1.9199998999999999E-2</v>
+            <v>1.8499999999999999E-2</v>
           </cell>
           <cell r="F8" t="str">
             <v>USD</v>
@@ -570,7 +573,7 @@
             <v>BLDP</v>
           </cell>
           <cell r="B9">
-            <v>2.3158300000000001</v>
+            <v>2.4325000000000001</v>
           </cell>
           <cell r="D9" t="str">
             <v>Nov 4, 2025</v>
@@ -583,9 +586,6 @@
           <cell r="A10" t="str">
             <v>BMRA</v>
           </cell>
-          <cell r="D10" t="str">
-            <v>Aug 26, 2025 - Sep 1, 2025</v>
-          </cell>
           <cell r="F10" t="str">
             <v>USD</v>
           </cell>
@@ -595,7 +595,7 @@
             <v>C</v>
           </cell>
           <cell r="B11">
-            <v>101.54761999999999</v>
+            <v>110.64286</v>
           </cell>
           <cell r="C11" t="str">
             <v>2025-08-04</v>
@@ -604,7 +604,7 @@
             <v>Oct 14, 2025</v>
           </cell>
           <cell r="E11">
-            <v>2.52E-2</v>
+            <v>2.5600000000000001E-2</v>
           </cell>
           <cell r="F11" t="str">
             <v>USD</v>
@@ -615,7 +615,7 @@
             <v>CSCO</v>
           </cell>
           <cell r="B12">
-            <v>75.814760000000007</v>
+            <v>76.290949999999995</v>
           </cell>
           <cell r="C12" t="str">
             <v>2025-10-03</v>
@@ -624,7 +624,7 @@
             <v>Nov 12, 2025</v>
           </cell>
           <cell r="E12">
-            <v>2.4500001E-2</v>
+            <v>2.41E-2</v>
           </cell>
           <cell r="F12" t="str">
             <v>USD</v>
@@ -635,16 +635,16 @@
             <v>CVS</v>
           </cell>
           <cell r="B13">
-            <v>82.072500000000005</v>
+            <v>83.791669999999996</v>
           </cell>
           <cell r="C13" t="str">
-            <v>2025-07-22</v>
+            <v>2025-10-23</v>
           </cell>
           <cell r="D13" t="str">
-            <v>Jul 31, 2025</v>
+            <v>Oct 29, 2025</v>
           </cell>
           <cell r="E13">
-            <v>3.61E-2</v>
+            <v>3.4099999999999998E-2</v>
           </cell>
           <cell r="F13" t="str">
             <v>USD</v>
@@ -669,16 +669,13 @@
             <v>DIS</v>
           </cell>
           <cell r="B15">
-            <v>132.22594000000001</v>
+            <v>133.96896000000001</v>
           </cell>
           <cell r="C15" t="str">
             <v>2025-06-24</v>
           </cell>
-          <cell r="D15" t="str">
-            <v>Aug 6, 2025</v>
-          </cell>
           <cell r="E15">
-            <v>8.5000000000000006E-3</v>
+            <v>9.1999999999999998E-3</v>
           </cell>
           <cell r="F15" t="str">
             <v>USD</v>
@@ -689,13 +686,13 @@
             <v>DSY.PA</v>
           </cell>
           <cell r="B16">
-            <v>35.563890000000001</v>
+            <v>35.352780000000003</v>
           </cell>
           <cell r="C16" t="str">
             <v>2025-05-26</v>
           </cell>
           <cell r="E16">
-            <v>9.7000000000000003E-3</v>
+            <v>9.1000000000000004E-3</v>
           </cell>
           <cell r="F16" t="str">
             <v>EUR</v>
@@ -706,7 +703,7 @@
             <v>DVA</v>
           </cell>
           <cell r="B17">
-            <v>153.5</v>
+            <v>151.5</v>
           </cell>
           <cell r="D17" t="str">
             <v>Oct 28, 2025</v>
@@ -726,7 +723,7 @@
             <v>2020-03-24</v>
           </cell>
           <cell r="D18" t="str">
-            <v>Jul 31, 2025</v>
+            <v>Oct 30, 2025</v>
           </cell>
           <cell r="F18" t="str">
             <v>USD</v>
@@ -737,13 +734,13 @@
             <v>EOAN.DE</v>
           </cell>
           <cell r="B19">
-            <v>16.88824</v>
+            <v>16.882349999999999</v>
           </cell>
           <cell r="C19" t="str">
             <v>2025-05-16</v>
           </cell>
           <cell r="E19">
-            <v>3.6199997999999997E-2</v>
+            <v>3.4200000000000001E-2</v>
           </cell>
           <cell r="F19" t="str">
             <v>EUR</v>
@@ -757,7 +754,7 @@
             <v>2025-08-25</v>
           </cell>
           <cell r="D20" t="str">
-            <v>Aug 7, 2025</v>
+            <v>Dec 16, 2025</v>
           </cell>
           <cell r="F20" t="str">
             <v>USD</v>
@@ -768,7 +765,7 @@
             <v>GM</v>
           </cell>
           <cell r="B21">
-            <v>57.2</v>
+            <v>63.8</v>
           </cell>
           <cell r="C21" t="str">
             <v>2025-09-05</v>
@@ -777,7 +774,7 @@
             <v>Oct 21, 2025</v>
           </cell>
           <cell r="E21">
-            <v>1.0299999000000001E-2</v>
+            <v>1.0800000000000001E-2</v>
           </cell>
           <cell r="F21" t="str">
             <v>USD</v>
@@ -788,7 +785,7 @@
             <v>HPE</v>
           </cell>
           <cell r="B22">
-            <v>24.984120000000001</v>
+            <v>26.040559999999999</v>
           </cell>
           <cell r="C22" t="str">
             <v>2025-09-18</v>
@@ -797,7 +794,7 @@
             <v>Dec 4, 2025</v>
           </cell>
           <cell r="E22">
-            <v>2.2100000000000002E-2</v>
+            <v>2.1300000999999999E-2</v>
           </cell>
           <cell r="F22" t="str">
             <v>USD</v>
@@ -808,7 +805,7 @@
             <v>HPQ</v>
           </cell>
           <cell r="B23">
-            <v>27.968</v>
+            <v>28.16375</v>
           </cell>
           <cell r="C23" t="str">
             <v>2025-09-10</v>
@@ -817,7 +814,7 @@
             <v>Nov 25, 2025</v>
           </cell>
           <cell r="E23">
-            <v>3.95E-2</v>
+            <v>4.5300002999999998E-2</v>
           </cell>
           <cell r="F23" t="str">
             <v>USD</v>
@@ -828,13 +825,13 @@
             <v>IAG.L</v>
           </cell>
           <cell r="B24">
-            <v>435.83789999999999</v>
+            <v>438.45612</v>
           </cell>
           <cell r="C24" t="str">
             <v>2025-06-26</v>
           </cell>
           <cell r="E24">
-            <v>1.9599999999999999E-2</v>
+            <v>1.8800000000000001E-2</v>
           </cell>
           <cell r="F24" t="str">
             <v>GBp</v>
@@ -845,13 +842,13 @@
             <v>KR</v>
           </cell>
           <cell r="B25">
-            <v>75.727270000000004</v>
+            <v>76.272729999999996</v>
           </cell>
           <cell r="C25" t="str">
-            <v>2025-08-15</v>
+            <v>2025-11-14</v>
           </cell>
           <cell r="D25" t="str">
-            <v>Sep 10, 2025 - Sep 15, 2025</v>
+            <v>Dec 4, 2025</v>
           </cell>
           <cell r="E25">
             <v>2.07E-2</v>
@@ -867,9 +864,6 @@
           <cell r="B26">
             <v>15</v>
           </cell>
-          <cell r="D26" t="str">
-            <v>Nov 6, 2025</v>
-          </cell>
           <cell r="F26" t="str">
             <v>USD</v>
           </cell>
@@ -879,7 +873,7 @@
             <v>LUMN</v>
           </cell>
           <cell r="B27">
-            <v>5.06182</v>
+            <v>5.2436400000000001</v>
           </cell>
           <cell r="C27" t="str">
             <v>2022-08-29</v>
@@ -896,10 +890,10 @@
             <v>MRNA</v>
           </cell>
           <cell r="B28">
-            <v>44.25</v>
+            <v>44.3</v>
           </cell>
           <cell r="D28" t="str">
-            <v>Aug 1, 2025</v>
+            <v>Nov 6, 2025</v>
           </cell>
           <cell r="F28" t="str">
             <v>USD</v>
@@ -910,16 +904,16 @@
             <v>MSFT</v>
           </cell>
           <cell r="B29">
-            <v>613.89160000000004</v>
+            <v>620.73689999999999</v>
           </cell>
           <cell r="C29" t="str">
-            <v>2025-08-21</v>
+            <v>2025-11-20</v>
           </cell>
           <cell r="D29" t="str">
             <v>Oct 29, 2025</v>
           </cell>
           <cell r="E29">
-            <v>6.7000002999999999E-3</v>
+            <v>7.0999996000000003E-3</v>
           </cell>
           <cell r="F29" t="str">
             <v>USD</v>
@@ -930,7 +924,7 @@
             <v>NEE</v>
           </cell>
           <cell r="B30">
-            <v>82.294120000000007</v>
+            <v>84.722219999999993</v>
           </cell>
           <cell r="C30" t="str">
             <v>2025-08-28</v>
@@ -939,7 +933,7 @@
             <v>Oct 23, 2025</v>
           </cell>
           <cell r="E30">
-            <v>3.2000000000000001E-2</v>
+            <v>2.7199999999999998E-2</v>
           </cell>
           <cell r="F30" t="str">
             <v>USD</v>
@@ -950,16 +944,16 @@
             <v>NEM</v>
           </cell>
           <cell r="B31">
-            <v>73.224739999999997</v>
+            <v>91.209500000000006</v>
           </cell>
           <cell r="C31" t="str">
             <v>2025-09-04</v>
           </cell>
           <cell r="D31" t="str">
-            <v>Oct 22, 2025</v>
+            <v>Oct 23, 2025</v>
           </cell>
           <cell r="E31">
-            <v>1.3099998999999999E-2</v>
+            <v>1.17E-2</v>
           </cell>
           <cell r="F31" t="str">
             <v>USD</v>
@@ -970,10 +964,10 @@
             <v>NFLX</v>
           </cell>
           <cell r="B32">
-            <v>1350.316</v>
+            <v>1358.6105</v>
           </cell>
           <cell r="D32" t="str">
-            <v>Oct 16, 2025</v>
+            <v>Oct 21, 2025</v>
           </cell>
           <cell r="F32" t="str">
             <v>USD</v>
@@ -984,7 +978,7 @@
             <v>NOTE</v>
           </cell>
           <cell r="B33">
-            <v>31.501259999999998</v>
+            <v>31.501080000000002</v>
           </cell>
           <cell r="F33" t="str">
             <v>USD</v>
@@ -995,16 +989,16 @@
             <v>PAAS</v>
           </cell>
           <cell r="B34">
-            <v>37.375</v>
+            <v>44.5</v>
           </cell>
           <cell r="C34" t="str">
             <v>2025-08-18</v>
           </cell>
           <cell r="D34" t="str">
-            <v>Aug 6, 2025</v>
+            <v>Nov 12, 2025</v>
           </cell>
           <cell r="E34">
-            <v>1.3899999999999999E-2</v>
+            <v>1.2500000000000001E-2</v>
           </cell>
           <cell r="F34" t="str">
             <v>USD</v>
@@ -1029,7 +1023,7 @@
             <v>6.6333299999999999</v>
           </cell>
           <cell r="D36" t="str">
-            <v>Aug 14, 2025</v>
+            <v>Nov 13, 2025</v>
           </cell>
           <cell r="F36" t="str">
             <v>USD</v>
@@ -1065,13 +1059,13 @@
             <v>RWE.DE</v>
           </cell>
           <cell r="B39">
-            <v>43.26</v>
+            <v>43.982349999999997</v>
           </cell>
           <cell r="C39" t="str">
             <v>2025-05-02</v>
           </cell>
           <cell r="E39">
-            <v>3.1400003000000003E-2</v>
+            <v>2.7199999999999998E-2</v>
           </cell>
           <cell r="F39" t="str">
             <v>EUR</v>
@@ -1082,13 +1076,13 @@
             <v>SAP.DE</v>
           </cell>
           <cell r="B40">
-            <v>291.91037</v>
+            <v>287.60270000000003</v>
           </cell>
           <cell r="C40" t="str">
             <v>2025-05-14</v>
           </cell>
           <cell r="E40">
-            <v>1.0299999000000001E-2</v>
+            <v>1.0199999E-2</v>
           </cell>
           <cell r="F40" t="str">
             <v>EUR</v>
@@ -1102,7 +1096,7 @@
             <v>2025-03-31</v>
           </cell>
           <cell r="E41">
-            <v>2.47E-2</v>
+            <v>2.3199999999999998E-2</v>
           </cell>
           <cell r="F41" t="str">
             <v>USD</v>
@@ -1127,7 +1121,7 @@
             <v>TSLA</v>
           </cell>
           <cell r="B43">
-            <v>310.53410000000002</v>
+            <v>360.62945999999999</v>
           </cell>
           <cell r="D43" t="str">
             <v>Oct 22, 2025</v>
@@ -1141,16 +1135,16 @@
             <v>TSM</v>
           </cell>
           <cell r="B44">
-            <v>274.15667999999999</v>
+            <v>307.64688000000001</v>
           </cell>
           <cell r="C44" t="str">
-            <v>2025-09-16</v>
+            <v>2025-12-11</v>
           </cell>
           <cell r="D44" t="str">
             <v>Oct 16, 2025</v>
           </cell>
           <cell r="E44">
-            <v>1.37E-2</v>
+            <v>1.1900000000000001E-2</v>
           </cell>
           <cell r="F44" t="str">
             <v>USD</v>
@@ -1166,13 +1160,13 @@
             <v>UNIT</v>
           </cell>
           <cell r="B46">
-            <v>8.2502700000000004</v>
+            <v>7.4749999999999996</v>
           </cell>
           <cell r="C46" t="str">
             <v>2024-06-14</v>
           </cell>
           <cell r="D46" t="str">
-            <v>Oct 30, 2025</v>
+            <v>Nov 4, 2025</v>
           </cell>
           <cell r="F46" t="str">
             <v>USD</v>
@@ -1183,7 +1177,7 @@
             <v>AVGO</v>
           </cell>
           <cell r="B47">
-            <v>355.06</v>
+            <v>370.36489999999998</v>
           </cell>
           <cell r="C47" t="str">
             <v>2025-09-22</v>
@@ -1192,7 +1186,7 @@
             <v>Sep 4, 2025</v>
           </cell>
           <cell r="E47">
-            <v>6.9999998000000001E-3</v>
+            <v>7.3000000000000001E-3</v>
           </cell>
           <cell r="F47" t="str">
             <v>USD</v>
@@ -1209,7 +1203,7 @@
             <v>2025-04-04</v>
           </cell>
           <cell r="E48">
-            <v>2.7099999999999999E-2</v>
+            <v>2.8800000999999999E-2</v>
           </cell>
           <cell r="F48" t="str">
             <v>USD</v>
@@ -1220,7 +1214,7 @@
             <v>VONN.SW</v>
           </cell>
           <cell r="B49">
-            <v>63.325000000000003</v>
+            <v>61.1</v>
           </cell>
           <cell r="C49" t="str">
             <v>2025-04-04</v>
@@ -1229,7 +1223,7 @@
             <v>Jul 24, 2025</v>
           </cell>
           <cell r="E49">
-            <v>4.8800003000000002E-2</v>
+            <v>4.9299999999999997E-2</v>
           </cell>
           <cell r="F49" t="str">
             <v>CHF</v>
@@ -1249,7 +1243,7 @@
             <v>Nov 6, 2025</v>
           </cell>
           <cell r="E50">
-            <v>4.5700002000000003E-2</v>
+            <v>4.9299999999999997E-2</v>
           </cell>
           <cell r="F50" t="str">
             <v>USD</v>
@@ -1277,7 +1271,7 @@
             <v>XOM</v>
           </cell>
           <cell r="B52">
-            <v>124.79167</v>
+            <v>124.4512</v>
           </cell>
           <cell r="C52" t="str">
             <v>2025-08-15</v>
@@ -1286,7 +1280,7 @@
             <v>Oct 31, 2025</v>
           </cell>
           <cell r="E52">
-            <v>3.6299999999999999E-2</v>
+            <v>3.5799999999999998E-2</v>
           </cell>
           <cell r="F52" t="str">
             <v>USD</v>
@@ -1297,7 +1291,7 @@
             <v>XPER</v>
           </cell>
           <cell r="B53">
-            <v>11</v>
+            <v>11.4</v>
           </cell>
           <cell r="F53" t="str">
             <v>USD</v>
@@ -1322,13 +1316,13 @@
             <v>ENI.MI</v>
           </cell>
           <cell r="B55">
-            <v>15.5</v>
-          </cell>
-          <cell r="C55">
-            <v>45985</v>
+            <v>15.586360000000001</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>2025-11-24</v>
           </cell>
           <cell r="E55">
-            <v>7.1100003999999994E-2</v>
+            <v>6.9500000000000006E-2</v>
           </cell>
           <cell r="F55" t="str">
             <v>EUR</v>
@@ -1339,13 +1333,13 @@
             <v>EZJ.L</v>
           </cell>
           <cell r="B56">
-            <v>658.68399999999997</v>
+            <v>643.68399999999997</v>
           </cell>
           <cell r="C56" t="str">
             <v>2025-02-20</v>
           </cell>
           <cell r="E56">
-            <v>2.5799999000000001E-2</v>
+            <v>2.6099998999999999E-2</v>
           </cell>
           <cell r="F56" t="str">
             <v>GBp</v>
@@ -1356,16 +1350,16 @@
             <v>F</v>
           </cell>
           <cell r="B57">
-            <v>10.8</v>
+            <v>11.475</v>
           </cell>
           <cell r="C57" t="str">
             <v>2025-08-11</v>
           </cell>
           <cell r="D57" t="str">
-            <v>Oct 29, 2025</v>
+            <v>Oct 23, 2025</v>
           </cell>
           <cell r="E57">
-            <v>5.11E-2</v>
+            <v>5.2600003999999999E-2</v>
           </cell>
           <cell r="F57" t="str">
             <v>USD</v>
@@ -1376,7 +1370,7 @@
             <v>GLE.PA</v>
           </cell>
           <cell r="B58">
-            <v>61.800559999999997</v>
+            <v>63.157220000000002</v>
           </cell>
           <cell r="C58" t="str">
             <v>2025-10-07</v>
@@ -1385,7 +1379,7 @@
             <v>Oct 30, 2025</v>
           </cell>
           <cell r="E58">
-            <v>3.2099999999999997E-2</v>
+            <v>3.1600002000000002E-2</v>
           </cell>
           <cell r="F58" t="str">
             <v>EUR</v>
@@ -1396,7 +1390,7 @@
             <v>GNRC</v>
           </cell>
           <cell r="B59">
-            <v>204.5</v>
+            <v>203.375</v>
           </cell>
           <cell r="C59" t="str">
             <v>2013-06-10</v>
@@ -1413,7 +1407,7 @@
             <v>GS</v>
           </cell>
           <cell r="B60">
-            <v>710.57899999999995</v>
+            <v>764.68420000000003</v>
           </cell>
           <cell r="C60" t="str">
             <v>2025-08-29</v>
@@ -1422,7 +1416,7 @@
             <v>Oct 14, 2025</v>
           </cell>
           <cell r="E60">
-            <v>2.1700000000000001E-2</v>
+            <v>2.0899999999999998E-2</v>
           </cell>
           <cell r="F60" t="str">
             <v>USD</v>
@@ -1436,7 +1430,7 @@
             <v>2.6666699999999999</v>
           </cell>
           <cell r="D61" t="str">
-            <v>Aug 12, 2025</v>
+            <v>Nov 14, 2025</v>
           </cell>
           <cell r="F61" t="str">
             <v>USD</v>
@@ -1447,7 +1441,7 @@
             <v>LUV</v>
           </cell>
           <cell r="B62">
-            <v>32.06</v>
+            <v>33.06</v>
           </cell>
           <cell r="C62" t="str">
             <v>2025-09-03</v>
@@ -1456,7 +1450,7 @@
             <v>Oct 22, 2025</v>
           </cell>
           <cell r="E62">
-            <v>2.29E-2</v>
+            <v>2.3E-2</v>
           </cell>
           <cell r="F62" t="str">
             <v>USD</v>
@@ -1467,16 +1461,16 @@
             <v>MA</v>
           </cell>
           <cell r="B63">
-            <v>644.55150000000003</v>
+            <v>648.43029999999999</v>
           </cell>
           <cell r="C63" t="str">
-            <v>2025-07-09</v>
+            <v>2025-10-09</v>
           </cell>
           <cell r="D63" t="str">
             <v>Oct 30, 2025</v>
           </cell>
           <cell r="E63">
-            <v>5.1999999999999998E-3</v>
+            <v>5.4999999999999997E-3</v>
           </cell>
           <cell r="F63" t="str">
             <v>USD</v>
@@ -1501,16 +1495,16 @@
             <v>NVS</v>
           </cell>
           <cell r="B65">
-            <v>118.545</v>
+            <v>122.054</v>
           </cell>
           <cell r="C65" t="str">
             <v>2025-03-12</v>
           </cell>
           <cell r="D65" t="str">
-            <v>Jul 17, 2025</v>
+            <v>Oct 28, 2025</v>
           </cell>
           <cell r="E65">
-            <v>3.0800000000000001E-2</v>
+            <v>3.0700000000000002E-2</v>
           </cell>
           <cell r="F65" t="str">
             <v>USD</v>
@@ -1521,13 +1515,13 @@
             <v>ORA.PA</v>
           </cell>
           <cell r="B66">
-            <v>14.994440000000001</v>
+            <v>15.28889</v>
           </cell>
           <cell r="C66" t="str">
             <v>2025-12-02</v>
           </cell>
           <cell r="E66">
-            <v>5.5E-2</v>
+            <v>5.5199999999999999E-2</v>
           </cell>
           <cell r="F66" t="str">
             <v>EUR</v>
@@ -1538,7 +1532,7 @@
             <v>OXY</v>
           </cell>
           <cell r="B67">
-            <v>50.78</v>
+            <v>51.545450000000002</v>
           </cell>
           <cell r="C67" t="str">
             <v>2025-09-10</v>
@@ -1547,7 +1541,7 @@
             <v>Aug 6, 2025</v>
           </cell>
           <cell r="E67">
-            <v>2.0899999999999998E-2</v>
+            <v>2.2800000000000001E-2</v>
           </cell>
           <cell r="F67" t="str">
             <v>USD</v>
@@ -1558,16 +1552,16 @@
             <v>PFE</v>
           </cell>
           <cell r="B68">
-            <v>28.857140000000001</v>
+            <v>28.80864</v>
           </cell>
           <cell r="C68" t="str">
-            <v>2025-07-25</v>
+            <v>2025-11-07</v>
           </cell>
           <cell r="D68" t="str">
             <v>Nov 4, 2025</v>
           </cell>
           <cell r="E68">
-            <v>6.9099999999999995E-2</v>
+            <v>6.9400000000000003E-2</v>
           </cell>
           <cell r="F68" t="str">
             <v>USD</v>
@@ -1595,16 +1589,16 @@
             <v>RRC</v>
           </cell>
           <cell r="B70">
-            <v>42.625</v>
+            <v>42.25</v>
           </cell>
           <cell r="C70" t="str">
             <v>2025-09-12</v>
           </cell>
           <cell r="D70" t="str">
-            <v>Oct 21, 2025</v>
+            <v>Oct 28, 2025</v>
           </cell>
           <cell r="E70">
-            <v>1.04E-2</v>
+            <v>9.9000000000000008E-3</v>
           </cell>
           <cell r="F70" t="str">
             <v>USD</v>
@@ -1615,7 +1609,7 @@
             <v>XYZ</v>
           </cell>
           <cell r="B71">
-            <v>85.644440000000003</v>
+            <v>88.005560000000003</v>
           </cell>
           <cell r="D71" t="str">
             <v>Nov 6, 2025</v>
@@ -1629,13 +1623,13 @@
             <v>THC</v>
           </cell>
           <cell r="B72">
-            <v>201.43</v>
+            <v>204.90475000000001</v>
           </cell>
           <cell r="C72" t="str">
             <v>2000-03-13</v>
           </cell>
           <cell r="D72" t="str">
-            <v>Jul 22, 2025</v>
+            <v>Oct 28, 2025</v>
           </cell>
           <cell r="F72" t="str">
             <v>USD</v>
@@ -1948,8 +1942,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1985,7 +1979,7 @@
       </c>
       <c r="B2">
         <f>[1]Data!B2</f>
-        <v>235.52553</v>
+        <v>248.17128</v>
       </c>
       <c r="C2" t="str">
         <f>[1]Data!C2</f>
@@ -1997,7 +1991,7 @@
       </c>
       <c r="E2">
         <f>[1]Data!E2</f>
-        <v>4.3E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="F2" t="str">
         <f>[1]Data!F2</f>
@@ -2023,7 +2017,7 @@
       </c>
       <c r="E3">
         <f>[1]Data!E3</f>
-        <v>1.2999999E-2</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="F3" t="str">
         <f>[1]Data!F3</f>
@@ -2037,7 +2031,7 @@
       </c>
       <c r="B4">
         <f>[1]Data!B4</f>
-        <v>95.060005000000004</v>
+        <v>96.66</v>
       </c>
       <c r="C4">
         <f>[1]Data!C4</f>
@@ -2063,7 +2057,7 @@
       </c>
       <c r="B5">
         <f>[1]Data!B5</f>
-        <v>263.18033000000003</v>
+        <v>266.56450000000001</v>
       </c>
       <c r="C5">
         <f>[1]Data!C5</f>
@@ -2095,9 +2089,9 @@
         <f>[1]Data!C6</f>
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="str">
         <f>[1]Data!D6</f>
-        <v>0</v>
+        <v>--</v>
       </c>
       <c r="E6">
         <f>[1]Data!E6</f>
@@ -2115,7 +2109,7 @@
       </c>
       <c r="B7">
         <f>[1]Data!B7</f>
-        <v>758</v>
+        <v>873.90326000000005</v>
       </c>
       <c r="C7" t="str">
         <f>[1]Data!C7</f>
@@ -2127,7 +2121,7 @@
       </c>
       <c r="E7">
         <f>[1]Data!E7</f>
-        <v>9.7999999999999997E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F7" t="str">
         <f>[1]Data!F7</f>
@@ -2141,7 +2135,7 @@
       </c>
       <c r="B8">
         <f>[1]Data!B8</f>
-        <v>87.27</v>
+        <v>89.77</v>
       </c>
       <c r="C8" t="str">
         <f>[1]Data!C8</f>
@@ -2149,11 +2143,11 @@
       </c>
       <c r="D8" t="str">
         <f>[1]Data!D8</f>
-        <v>Jul 29, 2025</v>
+        <v>Nov 6, 2025</v>
       </c>
       <c r="E8">
         <f>[1]Data!E8</f>
-        <v>1.9199998999999999E-2</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="F8" t="str">
         <f>[1]Data!F8</f>
@@ -2167,7 +2161,7 @@
       </c>
       <c r="B9">
         <f>[1]Data!B9</f>
-        <v>2.3158300000000001</v>
+        <v>2.4325000000000001</v>
       </c>
       <c r="C9">
         <f>[1]Data!C9</f>
@@ -2199,9 +2193,9 @@
         <f>[1]Data!C10</f>
         <v>0</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10">
         <f>[1]Data!D10</f>
-        <v>Aug 26, 2025 - Sep 1, 2025</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <f>[1]Data!E10</f>
@@ -2219,7 +2213,7 @@
       </c>
       <c r="B11">
         <f>[1]Data!B11</f>
-        <v>101.54761999999999</v>
+        <v>110.64286</v>
       </c>
       <c r="C11" t="str">
         <f>[1]Data!C11</f>
@@ -2231,7 +2225,7 @@
       </c>
       <c r="E11">
         <f>[1]Data!E11</f>
-        <v>2.52E-2</v>
+        <v>2.5600000000000001E-2</v>
       </c>
       <c r="F11" t="str">
         <f>[1]Data!F11</f>
@@ -2245,7 +2239,7 @@
       </c>
       <c r="B12">
         <f>[1]Data!B12</f>
-        <v>75.814760000000007</v>
+        <v>76.290949999999995</v>
       </c>
       <c r="C12" t="str">
         <f>[1]Data!C12</f>
@@ -2257,7 +2251,7 @@
       </c>
       <c r="E12">
         <f>[1]Data!E12</f>
-        <v>2.4500001E-2</v>
+        <v>2.41E-2</v>
       </c>
       <c r="F12" t="str">
         <f>[1]Data!F12</f>
@@ -2271,19 +2265,19 @@
       </c>
       <c r="B13">
         <f>[1]Data!B13</f>
-        <v>82.072500000000005</v>
+        <v>83.791669999999996</v>
       </c>
       <c r="C13" t="str">
         <f>[1]Data!C13</f>
-        <v>2025-07-22</v>
+        <v>2025-10-23</v>
       </c>
       <c r="D13" t="str">
         <f>[1]Data!D13</f>
-        <v>Jul 31, 2025</v>
+        <v>Oct 29, 2025</v>
       </c>
       <c r="E13">
         <f>[1]Data!E13</f>
-        <v>3.61E-2</v>
+        <v>3.4099999999999998E-2</v>
       </c>
       <c r="F13" t="str">
         <f>[1]Data!F13</f>
@@ -2323,19 +2317,19 @@
       </c>
       <c r="B15">
         <f>[1]Data!B15</f>
-        <v>132.22594000000001</v>
+        <v>133.96896000000001</v>
       </c>
       <c r="C15" t="str">
         <f>[1]Data!C15</f>
         <v>2025-06-24</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D15">
         <f>[1]Data!D15</f>
-        <v>Aug 6, 2025</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <f>[1]Data!E15</f>
-        <v>8.5000000000000006E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="F15" t="str">
         <f>[1]Data!F15</f>
@@ -2349,7 +2343,7 @@
       </c>
       <c r="B16">
         <f>[1]Data!B16</f>
-        <v>35.563890000000001</v>
+        <v>35.352780000000003</v>
       </c>
       <c r="C16" t="str">
         <f>[1]Data!C16</f>
@@ -2361,7 +2355,7 @@
       </c>
       <c r="E16">
         <f>[1]Data!E16</f>
-        <v>9.7000000000000003E-3</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="F16" t="str">
         <f>[1]Data!F16</f>
@@ -2375,7 +2369,7 @@
       </c>
       <c r="B17">
         <f>[1]Data!B17</f>
-        <v>153.5</v>
+        <v>151.5</v>
       </c>
       <c r="C17">
         <f>[1]Data!C17</f>
@@ -2409,7 +2403,7 @@
       </c>
       <c r="D18" t="str">
         <f>[1]Data!D18</f>
-        <v>Jul 31, 2025</v>
+        <v>Oct 30, 2025</v>
       </c>
       <c r="E18">
         <f>[1]Data!E18</f>
@@ -2427,7 +2421,7 @@
       </c>
       <c r="B19">
         <f>[1]Data!B19</f>
-        <v>16.88824</v>
+        <v>16.882349999999999</v>
       </c>
       <c r="C19" t="str">
         <f>[1]Data!C19</f>
@@ -2439,7 +2433,7 @@
       </c>
       <c r="E19">
         <f>[1]Data!E19</f>
-        <v>3.6199997999999997E-2</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="F19" t="str">
         <f>[1]Data!F19</f>
@@ -2461,7 +2455,7 @@
       </c>
       <c r="D20" t="str">
         <f>[1]Data!D20</f>
-        <v>Aug 7, 2025</v>
+        <v>Dec 16, 2025</v>
       </c>
       <c r="E20">
         <f>[1]Data!E20</f>
@@ -2479,7 +2473,7 @@
       </c>
       <c r="B21">
         <f>[1]Data!B21</f>
-        <v>57.2</v>
+        <v>63.8</v>
       </c>
       <c r="C21" t="str">
         <f>[1]Data!C21</f>
@@ -2491,7 +2485,7 @@
       </c>
       <c r="E21">
         <f>[1]Data!E21</f>
-        <v>1.0299999000000001E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F21" t="str">
         <f>[1]Data!F21</f>
@@ -2505,7 +2499,7 @@
       </c>
       <c r="B22">
         <f>[1]Data!B22</f>
-        <v>24.984120000000001</v>
+        <v>26.040559999999999</v>
       </c>
       <c r="C22" t="str">
         <f>[1]Data!C22</f>
@@ -2517,7 +2511,7 @@
       </c>
       <c r="E22">
         <f>[1]Data!E22</f>
-        <v>2.2100000000000002E-2</v>
+        <v>2.1300000999999999E-2</v>
       </c>
       <c r="F22" t="str">
         <f>[1]Data!F22</f>
@@ -2531,7 +2525,7 @@
       </c>
       <c r="B23">
         <f>[1]Data!B23</f>
-        <v>27.968</v>
+        <v>28.16375</v>
       </c>
       <c r="C23" t="str">
         <f>[1]Data!C23</f>
@@ -2543,7 +2537,7 @@
       </c>
       <c r="E23">
         <f>[1]Data!E23</f>
-        <v>3.95E-2</v>
+        <v>4.5300002999999998E-2</v>
       </c>
       <c r="F23" t="str">
         <f>[1]Data!F23</f>
@@ -2557,7 +2551,7 @@
       </c>
       <c r="B24">
         <f>[1]Data!B24</f>
-        <v>435.83789999999999</v>
+        <v>438.45612</v>
       </c>
       <c r="C24" t="str">
         <f>[1]Data!C24</f>
@@ -2569,7 +2563,7 @@
       </c>
       <c r="E24">
         <f>[1]Data!E24</f>
-        <v>1.9599999999999999E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="F24" t="str">
         <f>[1]Data!F24</f>
@@ -2583,15 +2577,15 @@
       </c>
       <c r="B25">
         <f>[1]Data!B25</f>
-        <v>75.727270000000004</v>
+        <v>76.272729999999996</v>
       </c>
       <c r="C25" t="str">
         <f>[1]Data!C25</f>
-        <v>2025-08-15</v>
+        <v>2025-11-14</v>
       </c>
       <c r="D25" t="str">
         <f>[1]Data!D25</f>
-        <v>Sep 10, 2025 - Sep 15, 2025</v>
+        <v>Dec 4, 2025</v>
       </c>
       <c r="E25">
         <f>[1]Data!E25</f>
@@ -2615,9 +2609,9 @@
         <f>[1]Data!C26</f>
         <v>0</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D26">
         <f>[1]Data!D26</f>
-        <v>Nov 6, 2025</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <f>[1]Data!E26</f>
@@ -2635,7 +2629,7 @@
       </c>
       <c r="B27">
         <f>[1]Data!B27</f>
-        <v>5.06182</v>
+        <v>5.2436400000000001</v>
       </c>
       <c r="C27" t="str">
         <f>[1]Data!C27</f>
@@ -2661,7 +2655,7 @@
       </c>
       <c r="B28">
         <f>[1]Data!B28</f>
-        <v>44.25</v>
+        <v>44.3</v>
       </c>
       <c r="C28">
         <f>[1]Data!C28</f>
@@ -2669,7 +2663,7 @@
       </c>
       <c r="D28" t="str">
         <f>[1]Data!D28</f>
-        <v>Aug 1, 2025</v>
+        <v>Nov 6, 2025</v>
       </c>
       <c r="E28">
         <f>[1]Data!E28</f>
@@ -2687,11 +2681,11 @@
       </c>
       <c r="B29">
         <f>[1]Data!B29</f>
-        <v>613.89160000000004</v>
+        <v>620.73689999999999</v>
       </c>
       <c r="C29" t="str">
         <f>[1]Data!C29</f>
-        <v>2025-08-21</v>
+        <v>2025-11-20</v>
       </c>
       <c r="D29" t="str">
         <f>[1]Data!D29</f>
@@ -2699,7 +2693,7 @@
       </c>
       <c r="E29">
         <f>[1]Data!E29</f>
-        <v>6.7000002999999999E-3</v>
+        <v>7.0999996000000003E-3</v>
       </c>
       <c r="F29" t="str">
         <f>[1]Data!F29</f>
@@ -2713,7 +2707,7 @@
       </c>
       <c r="B30">
         <f>[1]Data!B30</f>
-        <v>82.294120000000007</v>
+        <v>84.722219999999993</v>
       </c>
       <c r="C30" t="str">
         <f>[1]Data!C30</f>
@@ -2725,7 +2719,7 @@
       </c>
       <c r="E30">
         <f>[1]Data!E30</f>
-        <v>3.2000000000000001E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="F30" t="str">
         <f>[1]Data!F30</f>
@@ -2739,7 +2733,7 @@
       </c>
       <c r="B31">
         <f>[1]Data!B31</f>
-        <v>73.224739999999997</v>
+        <v>91.209500000000006</v>
       </c>
       <c r="C31" t="str">
         <f>[1]Data!C31</f>
@@ -2747,11 +2741,11 @@
       </c>
       <c r="D31" t="str">
         <f>[1]Data!D31</f>
-        <v>Oct 22, 2025</v>
+        <v>Oct 23, 2025</v>
       </c>
       <c r="E31">
         <f>[1]Data!E31</f>
-        <v>1.3099998999999999E-2</v>
+        <v>1.17E-2</v>
       </c>
       <c r="F31" t="str">
         <f>[1]Data!F31</f>
@@ -2765,7 +2759,7 @@
       </c>
       <c r="B32">
         <f>[1]Data!B32</f>
-        <v>1350.316</v>
+        <v>1358.6105</v>
       </c>
       <c r="C32">
         <f>[1]Data!C32</f>
@@ -2773,7 +2767,7 @@
       </c>
       <c r="D32" t="str">
         <f>[1]Data!D32</f>
-        <v>Oct 16, 2025</v>
+        <v>Oct 21, 2025</v>
       </c>
       <c r="E32">
         <f>[1]Data!E32</f>
@@ -2791,7 +2785,7 @@
       </c>
       <c r="B33">
         <f>[1]Data!B33</f>
-        <v>31.501259999999998</v>
+        <v>31.501080000000002</v>
       </c>
       <c r="C33">
         <f>[1]Data!C33</f>
@@ -2817,7 +2811,7 @@
       </c>
       <c r="B34">
         <f>[1]Data!B34</f>
-        <v>37.375</v>
+        <v>44.5</v>
       </c>
       <c r="C34" t="str">
         <f>[1]Data!C34</f>
@@ -2825,11 +2819,11 @@
       </c>
       <c r="D34" t="str">
         <f>[1]Data!D34</f>
-        <v>Aug 6, 2025</v>
+        <v>Nov 12, 2025</v>
       </c>
       <c r="E34">
         <f>[1]Data!E34</f>
-        <v>1.3899999999999999E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="F34" t="str">
         <f>[1]Data!F34</f>
@@ -2877,7 +2871,7 @@
       </c>
       <c r="D36" t="str">
         <f>[1]Data!D36</f>
-        <v>Aug 14, 2025</v>
+        <v>Nov 13, 2025</v>
       </c>
       <c r="E36">
         <f>[1]Data!E36</f>
@@ -2947,7 +2941,7 @@
       </c>
       <c r="B39">
         <f>[1]Data!B39</f>
-        <v>43.26</v>
+        <v>43.982349999999997</v>
       </c>
       <c r="C39" t="str">
         <f>[1]Data!C39</f>
@@ -2959,7 +2953,7 @@
       </c>
       <c r="E39">
         <f>[1]Data!E39</f>
-        <v>3.1400003000000003E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="F39" t="str">
         <f>[1]Data!F39</f>
@@ -2973,7 +2967,7 @@
       </c>
       <c r="B40">
         <f>[1]Data!B40</f>
-        <v>291.91037</v>
+        <v>287.60270000000003</v>
       </c>
       <c r="C40" t="str">
         <f>[1]Data!C40</f>
@@ -2985,7 +2979,7 @@
       </c>
       <c r="E40">
         <f>[1]Data!E40</f>
-        <v>1.0299999000000001E-2</v>
+        <v>1.0199999E-2</v>
       </c>
       <c r="F40" t="str">
         <f>[1]Data!F40</f>
@@ -3011,7 +3005,7 @@
       </c>
       <c r="E41">
         <f>[1]Data!E41</f>
-        <v>2.47E-2</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="F41" t="str">
         <f>[1]Data!F41</f>
@@ -3051,7 +3045,7 @@
       </c>
       <c r="B43">
         <f>[1]Data!B43</f>
-        <v>310.53410000000002</v>
+        <v>360.62945999999999</v>
       </c>
       <c r="C43">
         <f>[1]Data!C43</f>
@@ -3077,11 +3071,11 @@
       </c>
       <c r="B44">
         <f>[1]Data!B44</f>
-        <v>274.15667999999999</v>
+        <v>307.64688000000001</v>
       </c>
       <c r="C44" t="str">
         <f>[1]Data!C44</f>
-        <v>2025-09-16</v>
+        <v>2025-12-11</v>
       </c>
       <c r="D44" t="str">
         <f>[1]Data!D44</f>
@@ -3089,7 +3083,7 @@
       </c>
       <c r="E44">
         <f>[1]Data!E44</f>
-        <v>1.37E-2</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="F44" t="str">
         <f>[1]Data!F44</f>
@@ -3129,7 +3123,7 @@
       </c>
       <c r="B46">
         <f>[1]Data!B46</f>
-        <v>8.2502700000000004</v>
+        <v>7.4749999999999996</v>
       </c>
       <c r="C46" t="str">
         <f>[1]Data!C46</f>
@@ -3137,7 +3131,7 @@
       </c>
       <c r="D46" t="str">
         <f>[1]Data!D46</f>
-        <v>Oct 30, 2025</v>
+        <v>Nov 4, 2025</v>
       </c>
       <c r="E46">
         <f>[1]Data!E46</f>
@@ -3155,7 +3149,7 @@
       </c>
       <c r="B47">
         <f>[1]Data!B47</f>
-        <v>355.06</v>
+        <v>370.36489999999998</v>
       </c>
       <c r="C47" t="str">
         <f>[1]Data!C47</f>
@@ -3167,7 +3161,7 @@
       </c>
       <c r="E47">
         <f>[1]Data!E47</f>
-        <v>6.9999998000000001E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="F47" t="str">
         <f>[1]Data!F47</f>
@@ -3193,7 +3187,7 @@
       </c>
       <c r="E48">
         <f>[1]Data!E48</f>
-        <v>2.7099999999999999E-2</v>
+        <v>2.8800000999999999E-2</v>
       </c>
       <c r="F48" t="str">
         <f>[1]Data!F48</f>
@@ -3207,7 +3201,7 @@
       </c>
       <c r="B49">
         <f>[1]Data!B49</f>
-        <v>63.325000000000003</v>
+        <v>61.1</v>
       </c>
       <c r="C49" t="str">
         <f>[1]Data!C49</f>
@@ -3219,7 +3213,7 @@
       </c>
       <c r="E49">
         <f>[1]Data!E49</f>
-        <v>4.8800003000000002E-2</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="F49" t="str">
         <f>[1]Data!F49</f>
@@ -3245,7 +3239,7 @@
       </c>
       <c r="E50">
         <f>[1]Data!E50</f>
-        <v>4.5700002000000003E-2</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="F50" t="str">
         <f>[1]Data!F50</f>
@@ -3285,7 +3279,7 @@
       </c>
       <c r="B52">
         <f>[1]Data!B52</f>
-        <v>124.79167</v>
+        <v>124.4512</v>
       </c>
       <c r="C52" t="str">
         <f>[1]Data!C52</f>
@@ -3297,7 +3291,7 @@
       </c>
       <c r="E52">
         <f>[1]Data!E52</f>
-        <v>3.6299999999999999E-2</v>
+        <v>3.5799999999999998E-2</v>
       </c>
       <c r="F52" t="str">
         <f>[1]Data!F52</f>
@@ -3311,7 +3305,7 @@
       </c>
       <c r="B53">
         <f>[1]Data!B53</f>
-        <v>11</v>
+        <v>11.4</v>
       </c>
       <c r="C53">
         <f>[1]Data!C53</f>
@@ -3363,11 +3357,11 @@
       </c>
       <c r="B55">
         <f>[1]Data!B55</f>
-        <v>15.5</v>
-      </c>
-      <c r="C55">
+        <v>15.586360000000001</v>
+      </c>
+      <c r="C55" t="str">
         <f>[1]Data!C55</f>
-        <v>45985</v>
+        <v>2025-11-24</v>
       </c>
       <c r="D55">
         <f>[1]Data!D55</f>
@@ -3375,7 +3369,7 @@
       </c>
       <c r="E55">
         <f>[1]Data!E55</f>
-        <v>7.1100003999999994E-2</v>
+        <v>6.9500000000000006E-2</v>
       </c>
       <c r="F55" t="str">
         <f>[1]Data!F55</f>
@@ -3389,7 +3383,7 @@
       </c>
       <c r="B56">
         <f>[1]Data!B56</f>
-        <v>658.68399999999997</v>
+        <v>643.68399999999997</v>
       </c>
       <c r="C56" t="str">
         <f>[1]Data!C56</f>
@@ -3401,7 +3395,7 @@
       </c>
       <c r="E56">
         <f>[1]Data!E56</f>
-        <v>2.5799999000000001E-2</v>
+        <v>2.6099998999999999E-2</v>
       </c>
       <c r="F56" t="str">
         <f>[1]Data!F56</f>
@@ -3415,7 +3409,7 @@
       </c>
       <c r="B57">
         <f>[1]Data!B57</f>
-        <v>10.8</v>
+        <v>11.475</v>
       </c>
       <c r="C57" t="str">
         <f>[1]Data!C57</f>
@@ -3423,11 +3417,11 @@
       </c>
       <c r="D57" t="str">
         <f>[1]Data!D57</f>
-        <v>Oct 29, 2025</v>
+        <v>Oct 23, 2025</v>
       </c>
       <c r="E57">
         <f>[1]Data!E57</f>
-        <v>5.11E-2</v>
+        <v>5.2600003999999999E-2</v>
       </c>
       <c r="F57" t="str">
         <f>[1]Data!F57</f>
@@ -3441,7 +3435,7 @@
       </c>
       <c r="B58">
         <f>[1]Data!B58</f>
-        <v>61.800559999999997</v>
+        <v>63.157220000000002</v>
       </c>
       <c r="C58" t="str">
         <f>[1]Data!C58</f>
@@ -3453,7 +3447,7 @@
       </c>
       <c r="E58">
         <f>[1]Data!E58</f>
-        <v>3.2099999999999997E-2</v>
+        <v>3.1600002000000002E-2</v>
       </c>
       <c r="F58" t="str">
         <f>[1]Data!F58</f>
@@ -3467,7 +3461,7 @@
       </c>
       <c r="B59">
         <f>[1]Data!B59</f>
-        <v>204.5</v>
+        <v>203.375</v>
       </c>
       <c r="C59" t="str">
         <f>[1]Data!C59</f>
@@ -3493,7 +3487,7 @@
       </c>
       <c r="B60">
         <f>[1]Data!B60</f>
-        <v>710.57899999999995</v>
+        <v>764.68420000000003</v>
       </c>
       <c r="C60" t="str">
         <f>[1]Data!C60</f>
@@ -3505,7 +3499,7 @@
       </c>
       <c r="E60">
         <f>[1]Data!E60</f>
-        <v>2.1700000000000001E-2</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="F60" t="str">
         <f>[1]Data!F60</f>
@@ -3527,7 +3521,7 @@
       </c>
       <c r="D61" t="str">
         <f>[1]Data!D61</f>
-        <v>Aug 12, 2025</v>
+        <v>Nov 14, 2025</v>
       </c>
       <c r="E61">
         <f>[1]Data!E61</f>
@@ -3545,7 +3539,7 @@
       </c>
       <c r="B62">
         <f>[1]Data!B62</f>
-        <v>32.06</v>
+        <v>33.06</v>
       </c>
       <c r="C62" t="str">
         <f>[1]Data!C62</f>
@@ -3557,7 +3551,7 @@
       </c>
       <c r="E62">
         <f>[1]Data!E62</f>
-        <v>2.29E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F62" t="str">
         <f>[1]Data!F62</f>
@@ -3571,11 +3565,11 @@
       </c>
       <c r="B63">
         <f>[1]Data!B63</f>
-        <v>644.55150000000003</v>
+        <v>648.43029999999999</v>
       </c>
       <c r="C63" t="str">
         <f>[1]Data!C63</f>
-        <v>2025-07-09</v>
+        <v>2025-10-09</v>
       </c>
       <c r="D63" t="str">
         <f>[1]Data!D63</f>
@@ -3583,7 +3577,7 @@
       </c>
       <c r="E63">
         <f>[1]Data!E63</f>
-        <v>5.1999999999999998E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="F63" t="str">
         <f>[1]Data!F63</f>
@@ -3623,7 +3617,7 @@
       </c>
       <c r="B65">
         <f>[1]Data!B65</f>
-        <v>118.545</v>
+        <v>122.054</v>
       </c>
       <c r="C65" t="str">
         <f>[1]Data!C65</f>
@@ -3631,11 +3625,11 @@
       </c>
       <c r="D65" t="str">
         <f>[1]Data!D65</f>
-        <v>Jul 17, 2025</v>
+        <v>Oct 28, 2025</v>
       </c>
       <c r="E65">
         <f>[1]Data!E65</f>
-        <v>3.0800000000000001E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="F65" t="str">
         <f>[1]Data!F65</f>
@@ -3649,7 +3643,7 @@
       </c>
       <c r="B66">
         <f>[1]Data!B66</f>
-        <v>14.994440000000001</v>
+        <v>15.28889</v>
       </c>
       <c r="C66" t="str">
         <f>[1]Data!C66</f>
@@ -3661,7 +3655,7 @@
       </c>
       <c r="E66">
         <f>[1]Data!E66</f>
-        <v>5.5E-2</v>
+        <v>5.5199999999999999E-2</v>
       </c>
       <c r="F66" t="str">
         <f>[1]Data!F66</f>
@@ -3675,7 +3669,7 @@
       </c>
       <c r="B67">
         <f>[1]Data!B67</f>
-        <v>50.78</v>
+        <v>51.545450000000002</v>
       </c>
       <c r="C67" t="str">
         <f>[1]Data!C67</f>
@@ -3687,7 +3681,7 @@
       </c>
       <c r="E67">
         <f>[1]Data!E67</f>
-        <v>2.0899999999999998E-2</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="F67" t="str">
         <f>[1]Data!F67</f>
@@ -3701,11 +3695,11 @@
       </c>
       <c r="B68">
         <f>[1]Data!B68</f>
-        <v>28.857140000000001</v>
+        <v>28.80864</v>
       </c>
       <c r="C68" t="str">
         <f>[1]Data!C68</f>
-        <v>2025-07-25</v>
+        <v>2025-11-07</v>
       </c>
       <c r="D68" t="str">
         <f>[1]Data!D68</f>
@@ -3713,7 +3707,7 @@
       </c>
       <c r="E68">
         <f>[1]Data!E68</f>
-        <v>6.9099999999999995E-2</v>
+        <v>6.9400000000000003E-2</v>
       </c>
       <c r="F68" t="str">
         <f>[1]Data!F68</f>
@@ -3753,7 +3747,7 @@
       </c>
       <c r="B70">
         <f>[1]Data!B70</f>
-        <v>42.625</v>
+        <v>42.25</v>
       </c>
       <c r="C70" t="str">
         <f>[1]Data!C70</f>
@@ -3761,11 +3755,11 @@
       </c>
       <c r="D70" t="str">
         <f>[1]Data!D70</f>
-        <v>Oct 21, 2025</v>
+        <v>Oct 28, 2025</v>
       </c>
       <c r="E70">
         <f>[1]Data!E70</f>
-        <v>1.04E-2</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="F70" t="str">
         <f>[1]Data!F70</f>
@@ -3779,7 +3773,7 @@
       </c>
       <c r="B71">
         <f>[1]Data!B71</f>
-        <v>85.644440000000003</v>
+        <v>88.005560000000003</v>
       </c>
       <c r="C71">
         <f>[1]Data!C71</f>
@@ -3805,7 +3799,7 @@
       </c>
       <c r="B72">
         <f>[1]Data!B72</f>
-        <v>201.43</v>
+        <v>204.90475000000001</v>
       </c>
       <c r="C72" t="str">
         <f>[1]Data!C72</f>
@@ -3813,7 +3807,7 @@
       </c>
       <c r="D72" t="str">
         <f>[1]Data!D72</f>
-        <v>Jul 22, 2025</v>
+        <v>Oct 28, 2025</v>
       </c>
       <c r="E72">
         <f>[1]Data!E72</f>
@@ -3886,8 +3880,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3940,7 +3934,7 @@
       </c>
       <c r="E2">
         <f>VALUE(_xlfn.XLOOKUP($C2,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>235.52553</v>
+        <v>248.17128</v>
       </c>
       <c r="F2" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C2,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -3952,7 +3946,7 @@
       </c>
       <c r="H2" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C2,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>4.3E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="J2" t="b">
         <f>ISNUMBER(F2)</f>
@@ -3960,7 +3954,7 @@
       </c>
       <c r="K2">
         <f>VALUE(E2)</f>
-        <v>235.52553</v>
+        <v>248.17128</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3989,7 +3983,7 @@
       </c>
       <c r="H3" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C3,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>1.2999999E-2</v>
+        <v>1.2699999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -4006,7 +4000,7 @@
       </c>
       <c r="E4">
         <f>VALUE(_xlfn.XLOOKUP($C4,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>95.060005000000004</v>
+        <v>96.66</v>
       </c>
       <c r="F4" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C4,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -4035,7 +4029,7 @@
       </c>
       <c r="E5">
         <f>VALUE(_xlfn.XLOOKUP($C5,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>263.18033000000003</v>
+        <v>266.56450000000001</v>
       </c>
       <c r="F5" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C5,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -4070,9 +4064,9 @@
         <f>VALUE(_xlfn.XLOOKUP($C6,$A$2:$A$74,Sheet1!C$2:C$74))</f>
         <v>0</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="4" t="str">
         <f>_xlfn.XLOOKUP($C6,$A$2:$A$74,Sheet1!D$2:D$74)</f>
-        <v>0</v>
+        <v>--</v>
       </c>
       <c r="H6" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C6,$A$2:$A$74,Sheet1!E$2:E$74))</f>
@@ -4093,7 +4087,7 @@
       </c>
       <c r="E7">
         <f>VALUE(_xlfn.XLOOKUP($C7,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>758</v>
+        <v>873.90326000000005</v>
       </c>
       <c r="F7" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C7,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -4105,7 +4099,7 @@
       </c>
       <c r="H7" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C7,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>9.7999999999999997E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -4122,7 +4116,7 @@
       </c>
       <c r="E8">
         <f>VALUE(_xlfn.XLOOKUP($C8,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>87.27</v>
+        <v>89.77</v>
       </c>
       <c r="F8" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C8,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -4130,11 +4124,11 @@
       </c>
       <c r="G8" s="4" t="str">
         <f>_xlfn.XLOOKUP($C8,$A$2:$A$74,Sheet1!D$2:D$74)</f>
-        <v>Jul 29, 2025</v>
+        <v>Nov 6, 2025</v>
       </c>
       <c r="H8" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C8,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>1.9199998999999999E-2</v>
+        <v>1.8499999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -4151,7 +4145,7 @@
       </c>
       <c r="E9">
         <f>VALUE(_xlfn.XLOOKUP($C9,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>2.3158300000000001</v>
+        <v>2.4325000000000001</v>
       </c>
       <c r="F9" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C9,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -4186,9 +4180,9 @@
         <f>VALUE(_xlfn.XLOOKUP($C10,$A$2:$A$74,Sheet1!C$2:C$74))</f>
         <v>0</v>
       </c>
-      <c r="G10" s="4" t="str">
+      <c r="G10" s="4">
         <f>_xlfn.XLOOKUP($C10,$A$2:$A$74,Sheet1!D$2:D$74)</f>
-        <v>Aug 26, 2025 - Sep 1, 2025</v>
+        <v>0</v>
       </c>
       <c r="H10" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C10,$A$2:$A$74,Sheet1!E$2:E$74))</f>
@@ -4209,7 +4203,7 @@
       </c>
       <c r="E11">
         <f>VALUE(_xlfn.XLOOKUP($C11,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>101.54761999999999</v>
+        <v>110.64286</v>
       </c>
       <c r="F11" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C11,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -4221,7 +4215,7 @@
       </c>
       <c r="H11" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C11,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>2.52E-2</v>
+        <v>2.5600000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -4238,7 +4232,7 @@
       </c>
       <c r="E12">
         <f>VALUE(_xlfn.XLOOKUP($C12,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>75.814760000000007</v>
+        <v>76.290949999999995</v>
       </c>
       <c r="F12" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C12,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -4250,7 +4244,7 @@
       </c>
       <c r="H12" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C12,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>2.4500001E-2</v>
+        <v>2.41E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -4267,19 +4261,19 @@
       </c>
       <c r="E13">
         <f>VALUE(_xlfn.XLOOKUP($C13,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>82.072500000000005</v>
+        <v>83.791669999999996</v>
       </c>
       <c r="F13" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C13,$A$2:$A$74,Sheet1!C$2:C$74))</f>
-        <v>45860</v>
+        <v>45953</v>
       </c>
       <c r="G13" s="4" t="str">
         <f>_xlfn.XLOOKUP($C13,$A$2:$A$74,Sheet1!D$2:D$74)</f>
-        <v>Jul 31, 2025</v>
+        <v>Oct 29, 2025</v>
       </c>
       <c r="H13" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C13,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>3.61E-2</v>
+        <v>3.4099999999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -4325,19 +4319,19 @@
       </c>
       <c r="E15">
         <f>VALUE(_xlfn.XLOOKUP($C15,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>132.22594000000001</v>
+        <v>133.96896000000001</v>
       </c>
       <c r="F15" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C15,$A$2:$A$74,Sheet1!C$2:C$74))</f>
         <v>45832</v>
       </c>
-      <c r="G15" s="4" t="str">
+      <c r="G15" s="4">
         <f>_xlfn.XLOOKUP($C15,$A$2:$A$74,Sheet1!D$2:D$74)</f>
-        <v>Aug 6, 2025</v>
+        <v>0</v>
       </c>
       <c r="H15" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C15,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>8.5000000000000006E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -4354,7 +4348,7 @@
       </c>
       <c r="E16">
         <f>VALUE(_xlfn.XLOOKUP($C16,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>35.563890000000001</v>
+        <v>35.352780000000003</v>
       </c>
       <c r="F16" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C16,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -4366,7 +4360,7 @@
       </c>
       <c r="H16" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C16,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>9.7000000000000003E-3</v>
+        <v>9.1000000000000004E-3</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -4383,7 +4377,7 @@
       </c>
       <c r="E17">
         <f>VALUE(_xlfn.XLOOKUP($C17,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>153.5</v>
+        <v>151.5</v>
       </c>
       <c r="F17" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C17,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -4420,7 +4414,7 @@
       </c>
       <c r="G18" s="4" t="str">
         <f>_xlfn.XLOOKUP($C18,$A$2:$A$74,Sheet1!D$2:D$74)</f>
-        <v>Jul 31, 2025</v>
+        <v>Oct 30, 2025</v>
       </c>
       <c r="H18" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C18,$A$2:$A$74,Sheet1!E$2:E$74))</f>
@@ -4441,7 +4435,7 @@
       </c>
       <c r="E19">
         <f>VALUE(_xlfn.XLOOKUP($C19,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>16.88824</v>
+        <v>16.882349999999999</v>
       </c>
       <c r="F19" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C19,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -4453,7 +4447,7 @@
       </c>
       <c r="H19" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C19,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>3.6199997999999997E-2</v>
+        <v>3.4200000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -4478,7 +4472,7 @@
       </c>
       <c r="G20" s="4" t="str">
         <f>_xlfn.XLOOKUP($C20,$A$2:$A$74,Sheet1!D$2:D$74)</f>
-        <v>Aug 7, 2025</v>
+        <v>Dec 16, 2025</v>
       </c>
       <c r="H20" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C20,$A$2:$A$74,Sheet1!E$2:E$74))</f>
@@ -4499,7 +4493,7 @@
       </c>
       <c r="E21">
         <f>VALUE(_xlfn.XLOOKUP($C21,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>57.2</v>
+        <v>63.8</v>
       </c>
       <c r="F21" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C21,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -4511,7 +4505,7 @@
       </c>
       <c r="H21" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C21,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>1.0299999000000001E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -4528,7 +4522,7 @@
       </c>
       <c r="E22">
         <f>VALUE(_xlfn.XLOOKUP($C22,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>24.984120000000001</v>
+        <v>26.040559999999999</v>
       </c>
       <c r="F22" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C22,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -4540,7 +4534,7 @@
       </c>
       <c r="H22" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C22,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>2.2100000000000002E-2</v>
+        <v>2.1300000999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -4557,7 +4551,7 @@
       </c>
       <c r="E23">
         <f>VALUE(_xlfn.XLOOKUP($C23,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>27.968</v>
+        <v>28.16375</v>
       </c>
       <c r="F23" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C23,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -4569,7 +4563,7 @@
       </c>
       <c r="H23" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C23,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>3.95E-2</v>
+        <v>4.5300002999999998E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -4586,7 +4580,7 @@
       </c>
       <c r="E24">
         <f>VALUE(_xlfn.XLOOKUP($C24,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>435.83789999999999</v>
+        <v>438.45612</v>
       </c>
       <c r="F24" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C24,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -4598,7 +4592,7 @@
       </c>
       <c r="H24" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C24,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>1.9599999999999999E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -4615,15 +4609,15 @@
       </c>
       <c r="E25">
         <f>VALUE(_xlfn.XLOOKUP($C25,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>75.727270000000004</v>
+        <v>76.272729999999996</v>
       </c>
       <c r="F25" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C25,$A$2:$A$74,Sheet1!C$2:C$74))</f>
-        <v>45884</v>
+        <v>45975</v>
       </c>
       <c r="G25" s="4" t="str">
         <f>_xlfn.XLOOKUP($C25,$A$2:$A$74,Sheet1!D$2:D$74)</f>
-        <v>Sep 10, 2025 - Sep 15, 2025</v>
+        <v>Dec 4, 2025</v>
       </c>
       <c r="H25" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C25,$A$2:$A$74,Sheet1!E$2:E$74))</f>
@@ -4650,9 +4644,9 @@
         <f>VALUE(_xlfn.XLOOKUP($C26,$A$2:$A$74,Sheet1!C$2:C$74))</f>
         <v>0</v>
       </c>
-      <c r="G26" s="4" t="str">
+      <c r="G26" s="4">
         <f>_xlfn.XLOOKUP($C26,$A$2:$A$74,Sheet1!D$2:D$74)</f>
-        <v>Nov 6, 2025</v>
+        <v>0</v>
       </c>
       <c r="H26" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C26,$A$2:$A$74,Sheet1!E$2:E$74))</f>
@@ -4673,7 +4667,7 @@
       </c>
       <c r="E27">
         <f>VALUE(_xlfn.XLOOKUP($C27,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>5.06182</v>
+        <v>5.2436400000000001</v>
       </c>
       <c r="F27" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C27,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -4702,7 +4696,7 @@
       </c>
       <c r="E28">
         <f>VALUE(_xlfn.XLOOKUP($C28,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>44.25</v>
+        <v>44.3</v>
       </c>
       <c r="F28" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C28,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -4710,7 +4704,7 @@
       </c>
       <c r="G28" s="4" t="str">
         <f>_xlfn.XLOOKUP($C28,$A$2:$A$74,Sheet1!D$2:D$74)</f>
-        <v>Aug 1, 2025</v>
+        <v>Nov 6, 2025</v>
       </c>
       <c r="H28" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C28,$A$2:$A$74,Sheet1!E$2:E$74))</f>
@@ -4731,11 +4725,11 @@
       </c>
       <c r="E29">
         <f>VALUE(_xlfn.XLOOKUP($C29,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>613.89160000000004</v>
+        <v>620.73689999999999</v>
       </c>
       <c r="F29" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C29,$A$2:$A$74,Sheet1!C$2:C$74))</f>
-        <v>45890</v>
+        <v>45981</v>
       </c>
       <c r="G29" s="4" t="str">
         <f>_xlfn.XLOOKUP($C29,$A$2:$A$74,Sheet1!D$2:D$74)</f>
@@ -4743,7 +4737,7 @@
       </c>
       <c r="H29" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C29,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>6.7000002999999999E-3</v>
+        <v>7.0999996000000003E-3</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -4760,7 +4754,7 @@
       </c>
       <c r="E30">
         <f>VALUE(_xlfn.XLOOKUP($C30,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>82.294120000000007</v>
+        <v>84.722219999999993</v>
       </c>
       <c r="F30" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C30,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -4772,7 +4766,7 @@
       </c>
       <c r="H30" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C30,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>3.2000000000000001E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -4789,7 +4783,7 @@
       </c>
       <c r="E31">
         <f>VALUE(_xlfn.XLOOKUP($C31,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>73.224739999999997</v>
+        <v>91.209500000000006</v>
       </c>
       <c r="F31" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C31,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -4797,11 +4791,11 @@
       </c>
       <c r="G31" s="4" t="str">
         <f>_xlfn.XLOOKUP($C31,$A$2:$A$74,Sheet1!D$2:D$74)</f>
-        <v>Oct 22, 2025</v>
+        <v>Oct 23, 2025</v>
       </c>
       <c r="H31" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C31,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>1.3099998999999999E-2</v>
+        <v>1.17E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -4818,7 +4812,7 @@
       </c>
       <c r="E32">
         <f>VALUE(_xlfn.XLOOKUP($C32,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>1350.316</v>
+        <v>1358.6105</v>
       </c>
       <c r="F32" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C32,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -4826,7 +4820,7 @@
       </c>
       <c r="G32" s="4" t="str">
         <f>_xlfn.XLOOKUP($C32,$A$2:$A$74,Sheet1!D$2:D$74)</f>
-        <v>Oct 16, 2025</v>
+        <v>Oct 21, 2025</v>
       </c>
       <c r="H32" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C32,$A$2:$A$74,Sheet1!E$2:E$74))</f>
@@ -4847,7 +4841,7 @@
       </c>
       <c r="E33">
         <f>VALUE(_xlfn.XLOOKUP($C33,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>31.501259999999998</v>
+        <v>31.501080000000002</v>
       </c>
       <c r="F33" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C33,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -4876,7 +4870,7 @@
       </c>
       <c r="E34">
         <f>VALUE(_xlfn.XLOOKUP($C34,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>37.375</v>
+        <v>44.5</v>
       </c>
       <c r="F34" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C34,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -4884,11 +4878,11 @@
       </c>
       <c r="G34" s="4" t="str">
         <f>_xlfn.XLOOKUP($C34,$A$2:$A$74,Sheet1!D$2:D$74)</f>
-        <v>Aug 6, 2025</v>
+        <v>Nov 12, 2025</v>
       </c>
       <c r="H34" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C34,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>1.3899999999999999E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -4942,7 +4936,7 @@
       </c>
       <c r="G36" s="4" t="str">
         <f>_xlfn.XLOOKUP($C36,$A$2:$A$74,Sheet1!D$2:D$74)</f>
-        <v>Aug 14, 2025</v>
+        <v>Nov 13, 2025</v>
       </c>
       <c r="H36" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C36,$A$2:$A$74,Sheet1!E$2:E$74))</f>
@@ -5021,7 +5015,7 @@
       </c>
       <c r="E39">
         <f>VALUE(_xlfn.XLOOKUP($C39,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>43.26</v>
+        <v>43.982349999999997</v>
       </c>
       <c r="F39" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C39,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -5033,7 +5027,7 @@
       </c>
       <c r="H39" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C39,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>3.1400003000000003E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -5050,7 +5044,7 @@
       </c>
       <c r="E40">
         <f>VALUE(_xlfn.XLOOKUP($C40,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>291.91037</v>
+        <v>287.60270000000003</v>
       </c>
       <c r="F40" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C40,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -5062,7 +5056,7 @@
       </c>
       <c r="H40" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C40,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>1.0299999000000001E-2</v>
+        <v>1.0199999E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -5091,7 +5085,7 @@
       </c>
       <c r="H41" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C41,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>2.47E-2</v>
+        <v>2.3199999999999998E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -5137,7 +5131,7 @@
       </c>
       <c r="E43">
         <f>VALUE(_xlfn.XLOOKUP($C43,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>310.53410000000002</v>
+        <v>360.62945999999999</v>
       </c>
       <c r="F43" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C43,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -5166,11 +5160,11 @@
       </c>
       <c r="E44">
         <f>VALUE(_xlfn.XLOOKUP($C44,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>274.15667999999999</v>
+        <v>307.64688000000001</v>
       </c>
       <c r="F44" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C44,$A$2:$A$74,Sheet1!C$2:C$74))</f>
-        <v>45916</v>
+        <v>46002</v>
       </c>
       <c r="G44" s="4" t="str">
         <f>_xlfn.XLOOKUP($C44,$A$2:$A$74,Sheet1!D$2:D$74)</f>
@@ -5178,7 +5172,7 @@
       </c>
       <c r="H44" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C44,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>1.37E-2</v>
+        <v>1.1900000000000001E-2</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -5224,7 +5218,7 @@
       </c>
       <c r="E46">
         <f>VALUE(_xlfn.XLOOKUP($C46,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>8.2502700000000004</v>
+        <v>7.4749999999999996</v>
       </c>
       <c r="F46" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C46,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -5232,7 +5226,7 @@
       </c>
       <c r="G46" s="4" t="str">
         <f>_xlfn.XLOOKUP($C46,$A$2:$A$74,Sheet1!D$2:D$74)</f>
-        <v>Oct 30, 2025</v>
+        <v>Nov 4, 2025</v>
       </c>
       <c r="H46" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C46,$A$2:$A$74,Sheet1!E$2:E$74))</f>
@@ -5253,7 +5247,7 @@
       </c>
       <c r="E47">
         <f>VALUE(_xlfn.XLOOKUP($C47,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>355.06</v>
+        <v>370.36489999999998</v>
       </c>
       <c r="F47" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C47,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -5265,7 +5259,7 @@
       </c>
       <c r="H47" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C47,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>6.9999998000000001E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -5294,7 +5288,7 @@
       </c>
       <c r="H48" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C48,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>2.7099999999999999E-2</v>
+        <v>2.8800000999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -5311,7 +5305,7 @@
       </c>
       <c r="E49">
         <f>VALUE(_xlfn.XLOOKUP($C49,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>63.325000000000003</v>
+        <v>61.1</v>
       </c>
       <c r="F49" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C49,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -5323,7 +5317,7 @@
       </c>
       <c r="H49" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C49,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>4.8800003000000002E-2</v>
+        <v>4.9299999999999997E-2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -5352,7 +5346,7 @@
       </c>
       <c r="H50" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C50,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>4.5700002000000003E-2</v>
+        <v>4.9299999999999997E-2</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -5398,7 +5392,7 @@
       </c>
       <c r="E52">
         <f>VALUE(_xlfn.XLOOKUP($C52,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>124.79167</v>
+        <v>124.4512</v>
       </c>
       <c r="F52" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C52,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -5410,7 +5404,7 @@
       </c>
       <c r="H52" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C52,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>3.6299999999999999E-2</v>
+        <v>3.5799999999999998E-2</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -5427,7 +5421,7 @@
       </c>
       <c r="E53">
         <f>VALUE(_xlfn.XLOOKUP($C53,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>11</v>
+        <v>11.4</v>
       </c>
       <c r="F53" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C53,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -5462,9 +5456,9 @@
         <f>VALUE(_xlfn.XLOOKUP($C54,$A$2:$A$74,Sheet1!C$2:C$74))</f>
         <v>0</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="4" t="str">
         <f>_xlfn.XLOOKUP($C54,$A$2:$A$74,Sheet1!D$2:D$74)</f>
-        <v>0</v>
+        <v>--</v>
       </c>
       <c r="H54" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C54,$A$2:$A$74,Sheet1!E$2:E$74))</f>
@@ -5514,7 +5508,7 @@
       </c>
       <c r="E56">
         <f>VALUE(_xlfn.XLOOKUP($C56,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>35.563890000000001</v>
+        <v>35.352780000000003</v>
       </c>
       <c r="F56" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C56,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -5526,7 +5520,7 @@
       </c>
       <c r="H56" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C56,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>9.7000000000000003E-3</v>
+        <v>9.1000000000000004E-3</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -5543,7 +5537,7 @@
       </c>
       <c r="E57">
         <f>VALUE(_xlfn.XLOOKUP($C57,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>16.88824</v>
+        <v>16.882349999999999</v>
       </c>
       <c r="F57" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C57,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -5555,7 +5549,7 @@
       </c>
       <c r="H57" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C57,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>3.6199997999999997E-2</v>
+        <v>3.4200000000000001E-2</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -5572,7 +5566,7 @@
       </c>
       <c r="E58">
         <f>VALUE(_xlfn.XLOOKUP($C58,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>15.5</v>
+        <v>15.586360000000001</v>
       </c>
       <c r="F58" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C58,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -5584,7 +5578,7 @@
       </c>
       <c r="H58" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C58,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>7.1100003999999994E-2</v>
+        <v>6.9500000000000006E-2</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -5609,7 +5603,7 @@
       </c>
       <c r="G59" s="4" t="str">
         <f>_xlfn.XLOOKUP($C59,$A$2:$A$74,Sheet1!D$2:D$74)</f>
-        <v>Aug 7, 2025</v>
+        <v>Dec 16, 2025</v>
       </c>
       <c r="H59" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C59,$A$2:$A$74,Sheet1!E$2:E$74))</f>
@@ -5630,7 +5624,7 @@
       </c>
       <c r="E60">
         <f>VALUE(_xlfn.XLOOKUP($C60,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>61.800559999999997</v>
+        <v>63.157220000000002</v>
       </c>
       <c r="F60" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C60,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -5642,7 +5636,7 @@
       </c>
       <c r="H60" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C60,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>3.2099999999999997E-2</v>
+        <v>3.1600002000000002E-2</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -5659,7 +5653,7 @@
       </c>
       <c r="E61">
         <f>VALUE(_xlfn.XLOOKUP($C61,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>14.994440000000001</v>
+        <v>15.28889</v>
       </c>
       <c r="F61" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C61,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -5671,7 +5665,7 @@
       </c>
       <c r="H61" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C61,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>5.5E-2</v>
+        <v>5.5199999999999999E-2</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -5688,7 +5682,7 @@
       </c>
       <c r="E62">
         <f>VALUE(_xlfn.XLOOKUP($C62,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>43.26</v>
+        <v>43.982349999999997</v>
       </c>
       <c r="F62" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C62,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -5700,7 +5694,7 @@
       </c>
       <c r="H62" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C62,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>3.1400003000000003E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -5717,7 +5711,7 @@
       </c>
       <c r="E63">
         <f>VALUE(_xlfn.XLOOKUP($C63,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>291.91037</v>
+        <v>287.60270000000003</v>
       </c>
       <c r="F63" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C63,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -5729,7 +5723,7 @@
       </c>
       <c r="H63" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C63,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>1.0299999000000001E-2</v>
+        <v>1.0199999E-2</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -5775,7 +5769,7 @@
       </c>
       <c r="E65">
         <f>VALUE(_xlfn.XLOOKUP($C65,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>235.52553</v>
+        <v>248.17128</v>
       </c>
       <c r="F65" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C65,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -5787,7 +5781,7 @@
       </c>
       <c r="H65" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C65,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>4.3E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -5804,7 +5798,7 @@
       </c>
       <c r="E66">
         <f>VALUE(_xlfn.XLOOKUP($C66,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>263.18033000000003</v>
+        <v>266.56450000000001</v>
       </c>
       <c r="F66" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C66,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -5833,7 +5827,7 @@
       </c>
       <c r="E67">
         <f>VALUE(_xlfn.XLOOKUP($C67,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>758</v>
+        <v>873.90326000000005</v>
       </c>
       <c r="F67" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C67,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -5845,7 +5839,7 @@
       </c>
       <c r="H67" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C67,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>9.7999999999999997E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -5891,19 +5885,19 @@
       </c>
       <c r="E69">
         <f>VALUE(_xlfn.XLOOKUP($C69,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>132.22594000000001</v>
+        <v>133.96896000000001</v>
       </c>
       <c r="F69" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C69,$A$2:$A$74,Sheet1!C$2:C$74))</f>
         <v>45832</v>
       </c>
-      <c r="G69" s="4" t="str">
+      <c r="G69" s="4">
         <f>_xlfn.XLOOKUP($C69,$A$2:$A$74,Sheet1!D$2:D$74)</f>
-        <v>Aug 6, 2025</v>
+        <v>0</v>
       </c>
       <c r="H69" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C69,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>8.5000000000000006E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -5920,7 +5914,7 @@
       </c>
       <c r="E70">
         <f>VALUE(_xlfn.XLOOKUP($C70,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>57.2</v>
+        <v>63.8</v>
       </c>
       <c r="F70" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C70,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -5932,7 +5926,7 @@
       </c>
       <c r="H70" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C70,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>1.0299999000000001E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -5949,7 +5943,7 @@
       </c>
       <c r="E71">
         <f>VALUE(_xlfn.XLOOKUP($C71,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>435.83789999999999</v>
+        <v>438.45612</v>
       </c>
       <c r="F71" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C71,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -5961,7 +5955,7 @@
       </c>
       <c r="H71" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C71,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>1.9599999999999999E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -5978,7 +5972,7 @@
       </c>
       <c r="E72">
         <f>VALUE(_xlfn.XLOOKUP($C72,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>44.25</v>
+        <v>44.3</v>
       </c>
       <c r="F72" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C72,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -5986,7 +5980,7 @@
       </c>
       <c r="G72" s="4" t="str">
         <f>_xlfn.XLOOKUP($C72,$A$2:$A$74,Sheet1!D$2:D$74)</f>
-        <v>Aug 1, 2025</v>
+        <v>Nov 6, 2025</v>
       </c>
       <c r="H72" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C72,$A$2:$A$74,Sheet1!E$2:E$74))</f>
@@ -6036,7 +6030,7 @@
       </c>
       <c r="E74">
         <f>VALUE(_xlfn.XLOOKUP($C74,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>15.5</v>
+        <v>15.586360000000001</v>
       </c>
       <c r="F74" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C74,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -6048,7 +6042,7 @@
       </c>
       <c r="H74" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C74,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>7.1100003999999994E-2</v>
+        <v>6.9500000000000006E-2</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -6065,7 +6059,7 @@
       </c>
       <c r="E75">
         <f>VALUE(_xlfn.XLOOKUP($C75,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>658.68399999999997</v>
+        <v>643.68399999999997</v>
       </c>
       <c r="F75" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C75,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -6077,7 +6071,7 @@
       </c>
       <c r="H75" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C75,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>2.5799999000000001E-2</v>
+        <v>2.6099998999999999E-2</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -6094,7 +6088,7 @@
       </c>
       <c r="E76">
         <f>VALUE(_xlfn.XLOOKUP($C76,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>10.8</v>
+        <v>11.475</v>
       </c>
       <c r="F76" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C76,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -6102,11 +6096,11 @@
       </c>
       <c r="G76" s="4" t="str">
         <f>_xlfn.XLOOKUP($C76,$A$2:$A$74,Sheet1!D$2:D$74)</f>
-        <v>Oct 29, 2025</v>
+        <v>Oct 23, 2025</v>
       </c>
       <c r="H76" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C76,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>5.11E-2</v>
+        <v>5.2600003999999999E-2</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -6123,7 +6117,7 @@
       </c>
       <c r="E77">
         <f>VALUE(_xlfn.XLOOKUP($C77,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>61.800559999999997</v>
+        <v>63.157220000000002</v>
       </c>
       <c r="F77" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C77,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -6135,7 +6129,7 @@
       </c>
       <c r="H77" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C77,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>3.2099999999999997E-2</v>
+        <v>3.1600002000000002E-2</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -6152,7 +6146,7 @@
       </c>
       <c r="E78">
         <f>VALUE(_xlfn.XLOOKUP($C78,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>204.5</v>
+        <v>203.375</v>
       </c>
       <c r="F78" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C78,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -6181,7 +6175,7 @@
       </c>
       <c r="E79">
         <f>VALUE(_xlfn.XLOOKUP($C79,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>710.57899999999995</v>
+        <v>764.68420000000003</v>
       </c>
       <c r="F79" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C79,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -6193,7 +6187,7 @@
       </c>
       <c r="H79" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C79,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>2.1700000000000001E-2</v>
+        <v>2.0899999999999998E-2</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -6218,7 +6212,7 @@
       </c>
       <c r="G80" s="4" t="str">
         <f>_xlfn.XLOOKUP($C80,$A$2:$A$74,Sheet1!D$2:D$74)</f>
-        <v>Aug 12, 2025</v>
+        <v>Nov 14, 2025</v>
       </c>
       <c r="H80" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C80,$A$2:$A$74,Sheet1!E$2:E$74))</f>
@@ -6239,7 +6233,7 @@
       </c>
       <c r="E81">
         <f>VALUE(_xlfn.XLOOKUP($C81,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>32.06</v>
+        <v>33.06</v>
       </c>
       <c r="F81" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C81,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -6251,7 +6245,7 @@
       </c>
       <c r="H81" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C81,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>2.29E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -6268,11 +6262,11 @@
       </c>
       <c r="E82">
         <f>VALUE(_xlfn.XLOOKUP($C82,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>644.55150000000003</v>
+        <v>648.43029999999999</v>
       </c>
       <c r="F82" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C82,$A$2:$A$74,Sheet1!C$2:C$74))</f>
-        <v>45847</v>
+        <v>45939</v>
       </c>
       <c r="G82" s="4" t="str">
         <f>_xlfn.XLOOKUP($C82,$A$2:$A$74,Sheet1!D$2:D$74)</f>
@@ -6280,7 +6274,7 @@
       </c>
       <c r="H82" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C82,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>5.1999999999999998E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -6326,7 +6320,7 @@
       </c>
       <c r="E84">
         <f>VALUE(_xlfn.XLOOKUP($C84,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>118.545</v>
+        <v>122.054</v>
       </c>
       <c r="F84" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C84,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -6334,11 +6328,11 @@
       </c>
       <c r="G84" s="4" t="str">
         <f>_xlfn.XLOOKUP($C84,$A$2:$A$74,Sheet1!D$2:D$74)</f>
-        <v>Jul 17, 2025</v>
+        <v>Oct 28, 2025</v>
       </c>
       <c r="H84" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C84,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>3.0800000000000001E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -6355,7 +6349,7 @@
       </c>
       <c r="E85">
         <f>VALUE(_xlfn.XLOOKUP($C85,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>14.994440000000001</v>
+        <v>15.28889</v>
       </c>
       <c r="F85" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C85,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -6367,7 +6361,7 @@
       </c>
       <c r="H85" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C85,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>5.5E-2</v>
+        <v>5.5199999999999999E-2</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -6384,7 +6378,7 @@
       </c>
       <c r="E86">
         <f>VALUE(_xlfn.XLOOKUP($C86,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>50.78</v>
+        <v>51.545450000000002</v>
       </c>
       <c r="F86" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C86,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -6396,7 +6390,7 @@
       </c>
       <c r="H86" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C86,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>2.0899999999999998E-2</v>
+        <v>2.2800000000000001E-2</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -6413,11 +6407,11 @@
       </c>
       <c r="E87">
         <f>VALUE(_xlfn.XLOOKUP($C87,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>28.857140000000001</v>
+        <v>28.80864</v>
       </c>
       <c r="F87" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C87,$A$2:$A$74,Sheet1!C$2:C$74))</f>
-        <v>45863</v>
+        <v>45968</v>
       </c>
       <c r="G87" s="4" t="str">
         <f>_xlfn.XLOOKUP($C87,$A$2:$A$74,Sheet1!D$2:D$74)</f>
@@ -6425,7 +6419,7 @@
       </c>
       <c r="H87" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C87,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>6.9099999999999995E-2</v>
+        <v>6.9400000000000003E-2</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -6471,7 +6465,7 @@
       </c>
       <c r="E89">
         <f>VALUE(_xlfn.XLOOKUP($C89,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>42.625</v>
+        <v>42.25</v>
       </c>
       <c r="F89" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C89,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -6479,11 +6473,11 @@
       </c>
       <c r="G89" s="4" t="str">
         <f>_xlfn.XLOOKUP($C89,$A$2:$A$74,Sheet1!D$2:D$74)</f>
-        <v>Oct 21, 2025</v>
+        <v>Oct 28, 2025</v>
       </c>
       <c r="H89" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C89,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>1.04E-2</v>
+        <v>9.9000000000000008E-3</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -6500,7 +6494,7 @@
       </c>
       <c r="E90">
         <f>VALUE(_xlfn.XLOOKUP($C90,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>85.644440000000003</v>
+        <v>88.005560000000003</v>
       </c>
       <c r="F90" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C90,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -6529,7 +6523,7 @@
       </c>
       <c r="E91">
         <f>VALUE(_xlfn.XLOOKUP($C91,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>201.43</v>
+        <v>204.90475000000001</v>
       </c>
       <c r="F91" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C91,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -6537,7 +6531,7 @@
       </c>
       <c r="G91" s="4" t="str">
         <f>_xlfn.XLOOKUP($C91,$A$2:$A$74,Sheet1!D$2:D$74)</f>
-        <v>Jul 22, 2025</v>
+        <v>Oct 28, 2025</v>
       </c>
       <c r="H91" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C91,$A$2:$A$74,Sheet1!E$2:E$74))</f>
@@ -6616,7 +6610,7 @@
       </c>
       <c r="E94">
         <f>VALUE(_xlfn.XLOOKUP($C94,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>758</v>
+        <v>873.90326000000005</v>
       </c>
       <c r="F94" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C94,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -6628,7 +6622,7 @@
       </c>
       <c r="H94" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C94,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>9.7999999999999997E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -6645,7 +6639,7 @@
       </c>
       <c r="E95">
         <f>VALUE(_xlfn.XLOOKUP($C95,$A$2:$A$74,Sheet1!B$2:B$74))</f>
-        <v>16.88824</v>
+        <v>16.882349999999999</v>
       </c>
       <c r="F95" s="4">
         <f>VALUE(_xlfn.XLOOKUP($C95,$A$2:$A$74,Sheet1!C$2:C$74))</f>
@@ -6657,7 +6651,7 @@
       </c>
       <c r="H95" s="5">
         <f>VALUE(_xlfn.XLOOKUP($C95,$A$2:$A$74,Sheet1!E$2:E$74))</f>
-        <v>3.6199997999999997E-2</v>
+        <v>3.4200000000000001E-2</v>
       </c>
     </row>
   </sheetData>
